--- a/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_output.xlsx
@@ -937,8 +937,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[11.11555345]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[11.11555345]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.68102136]</t>
+          <t>[2.67367731]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.0853113  0.05280258 0.01634223 0.00804929 0.01475924]]</t>
+          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4827,10 +4827,10 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4971,10 +4971,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5117,10 +5117,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -24247.11758293
-  -25419.45680455  -29060.60430209  -35572.88881567  -45641.68090641
-  -60344.7167887   -81340.8022067   -92702.80983411 -106015.05336073
- -121697.97462647       0.               0.               0.
+          <t>[      0.               0.               0.          -27567.58323521
+  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
+  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
+ -148353.48280055       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5171,8 +5171,8 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5261,8 +5261,8 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2279802.58812205]</t>
+          <t>[2462929.0507968]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[5541560.01827584]</t>
+          <t>[5983171.69572365]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[47.01251305]</t>
+          <t>[47.5]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[6.77018795e+09 6.77018795e+09 8.06801159e+07 0.00000000e+00
+          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1417297.22967237]</t>
+          <t>[925300.85637238]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3789395.45089411]</t>
+          <t>[2751771.78876713]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5876,26 +5876,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.29583003e+10 6.00709619e+12 2.29583003e+10 6.00709619e+12
-  1.57322018e+10 1.65832412e+11]
- [2.08833530e+10 4.35206587e+12 2.08833530e+10 4.35206587e+12
-  1.46122018e+10 1.65832412e+11]
- [1.88084056e+10 3.05101086e+12 1.88084056e+10 3.05101086e+12
-  1.34922018e+10 1.65832412e+11]
- [1.67334582e+10 2.05968424e+12 1.67334582e+10 2.05968424e+12
-  1.23722018e+10 1.65832412e+11]
- [1.46585109e+10 1.33383911e+12 1.46585109e+10 1.33383911e+12
-  1.12522018e+10 1.65832412e+11]
- [1.25835635e+10 8.29228541e+11 1.25835635e+10 8.29228541e+11
-  1.01322018e+10 1.65832412e+11]
- [1.05086161e+10 5.01605627e+11 1.05086161e+10 5.01605627e+11
-  9.01220182e+09 1.65832412e+11]
- [8.43366875e+09 3.06723454e+11 8.43366875e+09 3.06723454e+11
-  7.89220182e+09 1.65832412e+11]
- [6.35872138e+09 2.00335108e+11 6.35872138e+09 2.00335108e+11
-  6.77220182e+09 1.65832412e+11]
- [4.28377401e+09 1.38193676e+11 4.28377401e+09 1.38193676e+11
-  5.65220182e+09 1.65832412e+11]]</t>
+          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
+  1.61085445e+10 2.01211985e+11]
+ [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
+  1.49885445e+10 2.01211985e+11]
+ [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
+  1.38685445e+10 2.01211985e+11]
+ [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
+  1.27485445e+10 2.01211985e+11]
+ [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
+  1.16285445e+10 2.01211985e+11]
+ [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
+  1.05085445e+10 2.01211985e+11]
+ [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
+  9.38854449e+09 2.01211985e+11]
+ [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
+  8.26854449e+09 2.01211985e+11]
+ [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
+  7.14854449e+09 2.01211985e+11]
+ [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
+  6.02854449e+09 2.01211985e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5918,9 +5918,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5943,9 +5943,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5968,9 +5968,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5993,9 +5993,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6018,9 +6018,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6043,10 +6043,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6241,8 +6241,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6265,8 +6265,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6289,8 +6289,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6313,8 +6313,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6337,8 +6337,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6361,8 +6361,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[78.22969381 78.22969381 78.22969381 39.5313894  39.5313894  39.5313894
- 13.29979863 11.91696322 10.63346464  7.63828443  4.82999322  2.81129359]</t>
+          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
+ 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6456,8 +6456,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -6481,8 +6481,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6587,9 +6587,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809693]
+          <t>[[  2427925.55809721]
  [    29094.73368413]
- [-21047904.72611746]]</t>
+ [-16226259.31013004]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6612,8 +6612,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.66134741e+06]
- [ 3.51960588e+08]
+          <t>[[-4.68084523e+06]
+ [ 3.53388791e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1544444.10716692 1544444.10716692 3088888.21433384       0.
+          <t>[2086034.04636477 2086034.04636477 4172068.09272954       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2384372.11979593]</t>
+          <t>[1892375.74649594]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.68288037e+00 -3.96336332e-02  9.53066607e+01]</t>
+          <t>[-3.38039904e+00 -4.99379313e-02  1.15553981e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.08820702e+10 3.07445832e+10 2.99453078e+08 7.86163621e+02
+          <t>[3.10747832e+10 3.09372962e+10 2.90371228e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6885,16 +6885,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -24247.11758293]
- [ -25419.45680455]
- [ -29060.60430209]
- [ -35572.88881567]
- [ -45641.68090641]
- [ -60344.7167887 ]
- [ -81340.8022067 ]
- [ -92702.80983411]
- [-106015.05336073]
- [-121697.97462647]
+ [ -27567.58323521]
+ [ -28898.60721297]
+ [ -33033.98623873]
+ [ -40422.94053529]
+ [ -51829.86773143]
+ [ -68473.56384445]
+ [ -92230.32452283]
+ [-107649.77263452]
+ [-126112.4806614 ]
+ [-148353.48280055]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6993,18 +6993,18 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-374.59069999]
- [-430.91788114]
- [-470.11441352]
- [-500.85548938]
- [-536.27787253]
- [-565.4094319 ]
- [-590.36279875]
- [-583.31505223]
- [-574.48967441]
- [-564.07935796]
- [-499.80471518]
- [-430.04376914]
+          <t>[[-433.45886933]
+ [-498.11098302]
+ [-543.35563483]
+ [-578.98977215]
+ [-620.2143425 ]
+ [-654.24896106]
+ [-683.49576931]
+ [-591.24559244]
+ [-493.58003057]
+ [-384.54058039]
+ [-374.78657101]
+ [-363.97090624]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -7028,24 +7028,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-44952907.00406548]
- [-42570222.46592031]
- [-40067514.70232173]
- [-38315158.65100473]
- [-36546918.08858899]
- [-34745171.20868878]
- [-32888706.77176672]
- [-30950495.32899452]
- [-28894476.77542457]
- [-27818015.72757944]
- [-26710720.38509756]
- [-25565461.31661185]
- [-24605555.95150549]
- [-23857431.88658256]
- [-23120287.52725957]
- [-22754724.9842493 ]
- [-22389691.86174169]
- [-22025188.19166055]]</t>
+          <t>[[-42228516.43436101]
+ [-39686169.71739706]
+ [-37007363.46496855]
+ [-35126127.22471119]
+ [-33226851.85698009]
+ [-31289546.20698587]
+ [-29290214.11882558]
+ [-27198314.99528399]
+ [-24973094.35257511]
+ [-23795843.29699851]
+ [-22562686.68441746]
+ [-21262368.93686927]
+ [-20170136.78553253]
+ [-19322687.87987806]
+ [-18475238.97422328]
+ [-18051514.52139574]
+ [-17627790.0685682 ]
+ [-17204065.61574036]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7068,24 +7068,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-4278339.01940766]
- [-9924115.80453734]
- [-9722601.49412576]
- [ 2428526.03966055]
- [ 2428779.92630022]
- [ 2429039.69846407]
- [ 2429314.46996049]
- [ 2429616.39989821]
- [ 2429962.73191306]
- [ 2429093.6056482 ]
- [ 2429192.03570336]
- [ 2429303.58524649]
- [ 2429231.11281548]
- [ 2428922.42401975]
- [ 2428954.99474853]
- [ 2428453.80362801]
- [ 2428464.85683587]
- [ 2428475.78258939]]</t>
+          <t>[[-4284114.30169103]
+ [-9422801.84148106]
+ [-8909692.12284653]
+ [ 2428470.72349775]
+ [ 2428695.02931387]
+ [ 2428925.42595564]
+ [ 2429170.41005958]
+ [ 2429441.3073732 ]
+ [ 2429754.21826773]
+ [ 2428982.71556465]
+ [ 2429089.76121815]
+ [ 2429211.57829398]
+ [ 2429147.74636079]
+ [ 2428843.9406437 ]
+ [ 2428880.33601435]
+ [ 2428416.32902703]
+ [ 2428425.10925293]
+ [ 2428433.78331507]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7108,24 +7108,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -55157.54368997]
- [-128174.91386399]
- [-126441.36385326]
- [  29102.45371344]
- [  29105.73482282]
- [  29109.09969355]
- [  29112.66673481]
- [  29116.5943708 ]
- [  29121.10775811]
- [  29109.87122734]
- [  29111.15864545]
- [  29112.61879287]
- [  29111.6915526 ]
- [  29107.69269278]
- [  29108.12770444]
- [  29101.6113031 ]
- [  29101.75843917]
- [  29101.90406618]]</t>
+          <t>[[ -55245.56616472]
+ [-121751.26421453]
+ [-115990.67619437]
+ [  29101.74168551]
+ [  29104.64083895]
+ [  29107.62549496]
+ [  29110.80605607]
+ [  29114.33010226]
+ [  29118.40787364]
+ [  29108.43395523]
+ [  29109.83184014]
+ [  29111.42353679]
+ [  29110.6065964 ]
+ [  29106.66972929]
+ [  29107.15198938]
+ [  29101.12048754]
+ [  29101.23722852]
+ [  29101.35269533]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7148,24 +7148,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -739933.02141658]
- [-2933502.39140367]
- [-5438117.25116125]
- [-6172783.28842734]
- [-5975636.09643357]
- [-5777775.10989408]
- [-5579315.08839825]
- [-5380372.15220455]
- [-5181066.39730635]
- [-5081365.22558599]
- [-4981621.98774762]
- [-4881847.01544325]
- [-4782053.52096474]
- [-4682229.56590346]
- [-4582357.16897968]
- [-4532415.85827541]
- [-4482464.98358257]
- [-4432505.62135447]]</t>
+          <t>[[ -832645.39629137]
+ [-3014585.36101957]
+ [-5395732.71689356]
+ [-6159499.96703668]
+ [-5963088.84808255]
+ [-5766167.25666821]
+ [-5568832.79859186]
+ [-5371184.55654665]
+ [-5173325.53478697]
+ [-5074395.79772199]
+ [-4975461.25321269]
+ [-4876536.84643006]
+ [-4777640.25518451]
+ [-4678763.82093888]
+ [-4579893.7070414 ]
+ [-4530474.10972424]
+ [-4481059.33981379]
+ [-4431650.23621183]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7188,24 +7188,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[5.75685774e+07]
- [2.27915365e+08]
- [4.21637467e+08]
- [4.77593974e+08]
- [4.61160660e+08]
- [4.44672332e+08]
- [4.28138014e+08]
- [4.11566810e+08]
- [3.94968103e+08]
- [3.86665236e+08]
- [3.78359275e+08]
- [3.70051028e+08]
- [3.61741526e+08]
- [3.53429859e+08]
- [3.45114658e+08]
- [3.40956739e+08]
- [3.36798138e+08]
- [3.32638936e+08]]</t>
+          <t>[[6.47757070e+07]
+ [2.34186136e+08]
+ [4.18293401e+08]
+ [4.76505307e+08]
+ [4.60129143e+08]
+ [4.43713655e+08]
+ [4.27266502e+08]
+ [4.10795430e+08]
+ [3.94308466e+08]
+ [3.86065123e+08]
+ [3.77821513e+08]
+ [3.69578792e+08]
+ [3.61338321e+08]
+ [3.53099508e+08]
+ [3.44861290e+08]
+ [3.40743410e+08]
+ [3.36625928e+08]
+ [3.32508908e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7228,24 +7228,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 214228.70407764]
- [ 468176.77257068]
- [ 808931.08872631]
- [1299671.8820058 ]
- [1299662.66086268]
- [1299653.35626568]
- [1299643.87549328]
- [1299634.10694238]
- [1299623.90840269]
- [1299614.04154688]
- [1299610.20878568]
- [1299606.11021713]
- [1299601.79825703]
- [1299598.50188763]
- [1299596.30794655]
- [1299593.20815025]
- [1299591.30735422]
- [1299589.40407021]]</t>
+          <t>[[ 214322.06831683]
+ [ 468332.56474577]
+ [ 809072.76854084]
+ [1299643.54972834]
+ [1299634.27249288]
+ [1299624.9064326 ]
+ [1299615.35296939]
+ [1299605.49378159]
+ [1299595.17828359]
+ [1299584.20553502]
+ [1299578.40048683]
+ [1299572.31982286]
+ [1299565.90805065]
+ [1299560.52238228]
+ [1299556.34374209]
+ [1299552.16512876]
+ [1299550.07583216]
+ [1299547.9865423 ]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7297,11 +7297,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -7328,8 +7328,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+ 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7477,11 +7477,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955
- 2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7504,11 +7504,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7531,11 +7531,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7558,11 +7558,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7585,11 +7585,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7612,12 +7612,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647  78.22969381  78.22969381
-  78.22969381  39.5313894   39.5313894   39.5313894   13.29979863
-  11.91696322  10.63346464   7.63828443   4.82999322   2.81129359]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
+  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
+  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7640,36 +7640,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-4.49529070e+07]
- [-4.25702225e+07]
- [-4.00675147e+07]
- [-3.83151587e+07]
- [-3.65469181e+07]
- [-3.47451712e+07]
- [-3.28887068e+07]
- [-3.09504953e+07]
- [-2.88944768e+07]
- [-2.78180157e+07]
- [-2.67107204e+07]
- [-2.55654613e+07]
- [-2.46055560e+07]
- [-2.38574319e+07]
- [-2.31202875e+07]
- [-2.27547250e+07]
- [-2.23896919e+07]
- [-2.20251882e+07]
- [-1.86746439e+07]
- [-1.63021578e+07]
- [-1.39291009e+07]
- [-1.22221796e+07]
- [-1.05146936e+07]
- [-8.80665650e+06]
- [-8.44684351e+06]
- [-8.09965557e+06]
- [-7.76526569e+06]
- [-7.49728119e+06]
- [-7.26685015e+06]
- [ 1.50612323e-08]]</t>
+          <t>[[-4.22285164e+07]
+ [-3.96861697e+07]
+ [-3.70073635e+07]
+ [-3.51261272e+07]
+ [-3.32268519e+07]
+ [-3.12895462e+07]
+ [-2.92902141e+07]
+ [-2.71983150e+07]
+ [-2.49730944e+07]
+ [-2.37958433e+07]
+ [-2.25626867e+07]
+ [-2.12623689e+07]
+ [-2.01701368e+07]
+ [-1.93226879e+07]
+ [-1.84752390e+07]
+ [-1.80515145e+07]
+ [-1.76277901e+07]
+ [-1.72040656e+07]
+ [-1.51797942e+07]
+ [-1.41331795e+07]
+ [-1.30859081e+07]
+ [-1.19325158e+07]
+ [-1.07784673e+07]
+ [-9.62377649e+06]
+ [-8.98499523e+06]
+ [-8.45525123e+06]
+ [-8.03519454e+06]
+ [-7.70139895e+06]
+ [-7.38124271e+06]
+ [ 1.90921128e-08]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7692,36 +7692,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.27833902e+06]
- [-9.92411580e+06]
- [-9.72260149e+06]
- [ 2.42852604e+06]
- [ 2.42877993e+06]
- [ 2.42903970e+06]
- [ 2.42931447e+06]
- [ 2.42961640e+06]
- [ 2.42996273e+06]
- [ 2.42909361e+06]
- [ 2.42919204e+06]
- [ 2.42930359e+06]
- [ 2.42923111e+06]
- [ 2.42892242e+06]
- [ 2.42895499e+06]
- [ 2.42845380e+06]
- [ 2.42846486e+06]
- [ 2.42847578e+06]
- [ 2.43183734e+06]
- [ 2.43239638e+06]
- [ 2.43289613e+06]
- [ 2.43211008e+06]
- [ 2.43285322e+06]
- [ 2.43343635e+06]
- [ 2.42922403e+06]
- [ 2.42930354e+06]
- [ 2.42934746e+06]
- [ 2.42912035e+06]
- [ 2.42897459e+06]
- [ 8.54865500e+02]]</t>
+          <t>[[-4.28411430e+06]
+ [-9.42280184e+06]
+ [-8.90969212e+06]
+ [ 2.42847072e+06]
+ [ 2.42869503e+06]
+ [ 2.42892543e+06]
+ [ 2.42917041e+06]
+ [ 2.42944131e+06]
+ [ 2.42975422e+06]
+ [ 2.42898272e+06]
+ [ 2.42908976e+06]
+ [ 2.42921158e+06]
+ [ 2.42914775e+06]
+ [ 2.42884394e+06]
+ [ 2.42888034e+06]
+ [ 2.42841633e+06]
+ [ 2.42842511e+06]
+ [ 2.42843378e+06]
+ [ 2.42942048e+06]
+ [ 2.42983395e+06]
+ [ 2.43020315e+06]
+ [ 2.43094535e+06]
+ [ 2.43149771e+06]
+ [ 2.43193162e+06]
+ [ 2.43030221e+06]
+ [ 2.43001550e+06]
+ [ 2.42970787e+06]
+ [ 2.42943875e+06]
+ [ 2.42941409e+06]
+ [ 1.39938100e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7744,36 +7744,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-5.51575437e+04]
- [-1.28174914e+05]
- [-1.26441364e+05]
- [ 2.91024537e+04]
- [ 2.91057348e+04]
- [ 2.91090997e+04]
- [ 2.91126667e+04]
- [ 2.91165944e+04]
- [ 2.91211078e+04]
- [ 2.91098712e+04]
- [ 2.91111586e+04]
- [ 2.91126188e+04]
- [ 2.91116916e+04]
- [ 2.91076927e+04]
- [ 2.91081277e+04]
- [ 2.91016113e+04]
- [ 2.91017584e+04]
- [ 2.91019041e+04]
- [ 2.91458177e+04]
- [ 2.91533380e+04]
- [ 2.91601419e+04]
- [ 2.91501998e+04]
- [ 2.91607533e+04]
- [ 2.91693840e+04]
- [ 2.91125878e+04]
- [ 2.91140856e+04]
- [ 2.91151787e+04]
- [ 2.91124323e+04]
- [ 2.91110265e+04]
- [ 1.37688562e+01]]</t>
+          <t>[[-5.52455662e+04]
+ [-1.21751264e+05]
+ [-1.15990676e+05]
+ [ 2.91017417e+04]
+ [ 2.91046408e+04]
+ [ 2.91076255e+04]
+ [ 2.91108061e+04]
+ [ 2.91143301e+04]
+ [ 2.91184079e+04]
+ [ 2.91084340e+04]
+ [ 2.91098318e+04]
+ [ 2.91114235e+04]
+ [ 2.91106066e+04]
+ [ 2.91066697e+04]
+ [ 2.91071520e+04]
+ [ 2.91011205e+04]
+ [ 2.91012372e+04]
+ [ 2.91013527e+04]
+ [ 2.91142640e+04]
+ [ 2.91198265e+04]
+ [ 2.91248537e+04]
+ [ 2.91349780e+04]
+ [ 2.91428223e+04]
+ [ 2.91492435e+04]
+ [ 2.91274055e+04]
+ [ 2.91238445e+04]
+ [ 2.91202106e+04]
+ [ 2.91173266e+04]
+ [ 2.91182964e+04]
+ [ 2.29909465e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7796,36 +7796,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-7.39933021e+05]
- [-2.93350239e+06]
- [-5.43811725e+06]
- [-6.17278329e+06]
- [-5.97563610e+06]
- [-5.77777511e+06]
- [-5.57931509e+06]
- [-5.38037215e+06]
- [-5.18106640e+06]
- [-5.08136523e+06]
- [-4.98162199e+06]
- [-4.88184702e+06]
- [-4.78205352e+06]
- [-4.68222957e+06]
- [-4.58235717e+06]
- [-4.53241586e+06]
- [-4.48246498e+06]
- [-4.43250562e+06]
- [-4.07034676e+06]
- [-3.70799716e+06]
- [-3.34593645e+06]
- [-2.82860646e+06]
- [-2.31057550e+06]
- [-1.79299351e+06]
- [-1.48290354e+06]
- [-1.17212386e+06]
- [-8.60839467e+05]
- [-5.69967460e+05]
- [-2.78767184e+05]
- [-3.36916917e-04]]</t>
+          <t>[[-8.32645396e+05]
+ [-3.01458536e+06]
+ [-5.39573272e+06]
+ [-6.15949997e+06]
+ [-5.96308885e+06]
+ [-5.76616726e+06]
+ [-5.56883280e+06]
+ [-5.37118456e+06]
+ [-5.17332553e+06]
+ [-5.07439580e+06]
+ [-4.97546125e+06]
+ [-4.87653685e+06]
+ [-4.77764026e+06]
+ [-4.67876382e+06]
+ [-4.57989371e+06]
+ [-4.53047411e+06]
+ [-4.48105934e+06]
+ [-4.43165024e+06]
+ [-4.07310870e+06]
+ [-3.71310941e+06]
+ [-3.35208347e+06]
+ [-2.83461351e+06]
+ [-2.31573256e+06]
+ [-1.79645175e+06]
+ [-1.48522083e+06]
+ [-1.17396942e+06]
+ [-8.62325549e+05]
+ [-5.70859693e+05]
+ [-2.78945854e+05]
+ [-6.52944062e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7848,36 +7848,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 5.75685774e+07]
- [ 2.27915365e+08]
- [ 4.21637467e+08]
- [ 4.77593974e+08]
- [ 4.61160660e+08]
- [ 4.44672332e+08]
- [ 4.28138014e+08]
- [ 4.11566810e+08]
- [ 3.94968103e+08]
- [ 3.86665236e+08]
- [ 3.78359275e+08]
- [ 3.70051028e+08]
- [ 3.61741526e+08]
- [ 3.53429859e+08]
- [ 3.45114658e+08]
- [ 3.40956739e+08]
- [ 3.36798138e+08]
- [ 3.32638936e+08]
- [ 3.02492382e+08]
- [ 2.72334432e+08]
- [ 2.42201721e+08]
- [ 1.99155917e+08]
- [ 1.56070352e+08]
- [ 1.13031260e+08]
- [ 8.72516777e+07]
- [ 6.14366860e+07]
- [ 3.56027483e+07]
- [ 1.14876374e+07]
- [-1.26176976e+07]
- [ 2.09181855e-02]]</t>
+          <t>[[ 6.47757070e+07]
+ [ 2.34186136e+08]
+ [ 4.18293401e+08]
+ [ 4.76505307e+08]
+ [ 4.60129143e+08]
+ [ 4.43713655e+08]
+ [ 4.27266502e+08]
+ [ 4.10795430e+08]
+ [ 3.94308466e+08]
+ [ 3.86065123e+08]
+ [ 3.77821513e+08]
+ [ 3.69578792e+08]
+ [ 3.61338321e+08]
+ [ 3.53099508e+08]
+ [ 3.44861290e+08]
+ [ 3.40743410e+08]
+ [ 3.36625928e+08]
+ [ 3.32508908e+08]
+ [ 3.02639587e+08]
+ [ 2.72663005e+08]
+ [ 2.42612620e+08]
+ [ 1.99562665e+08]
+ [ 1.56419778e+08]
+ [ 1.13261053e+08]
+ [ 8.73983075e+07]
+ [ 6.15437297e+07]
+ [ 3.56804327e+07]
+ [ 1.15308167e+07]
+ [-1.26071736e+07]
+ [ 3.97411880e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7900,35 +7900,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 214228.70407764]
- [ 468176.77257068]
- [ 808931.08872631]
- [1299671.8820058 ]
- [1299662.66086268]
- [1299653.35626568]
- [1299643.87549328]
- [1299634.10694238]
- [1299623.90840269]
- [1299614.04154688]
- [1299610.20878568]
- [1299606.11021713]
- [1299601.79825703]
- [1299598.50188763]
- [1299596.30794655]
- [1299593.20815025]
- [1299591.30735422]
- [1299589.40407021]
- [1299595.56979101]
- [1299580.42227368]
- [1299565.25865252]
- [1299638.34209914]
- [1299616.61641879]
- [1299594.88427661]
- [1299783.88297852]
- [1299782.23411551]
- [1299780.95632067]
- [1299819.18152035]
- [1299863.90764634]
+          <t>[[ 214322.06831683]
+ [ 468332.56474577]
+ [ 809072.76854084]
+ [1299643.54972834]
+ [1299634.27249288]
+ [1299624.9064326 ]
+ [1299615.35296939]
+ [1299605.49378159]
+ [1299595.17828359]
+ [1299584.20553502]
+ [1299578.40048683]
+ [1299572.31982286]
+ [1299565.90805065]
+ [1299560.52238228]
+ [1299556.34374209]
+ [1299552.16512876]
+ [1299550.07583216]
+ [1299547.9865423 ]
+ [1299696.90265974]
+ [1299681.72943394]
+ [1299666.5132912 ]
+ [1299708.40574408]
+ [1299686.60211815]
+ [1299664.78682196]
+ [1299658.60797545]
+ [1299683.82060062]
+ [1299725.67349568]
+ [1299756.2265236 ]
+ [1299755.64772689]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[12.11186105]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3789395.45089411]</t>
+          <t>[2751771.78876713]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1417297.22967237]</t>
+          <t>[925300.85637238]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4734395.45089411]</t>
+          <t>[3696771.78876713]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[315.62636339]</t>
+          <t>[246.45145258]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1417297.22967237]</t>
+          <t>[925300.85637238]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3789395.45089411]</t>
+          <t>[2751771.78876713]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3789395.45089411]</t>
+          <t>[2751771.78876713]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8833,9 +8833,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[374.59069999 430.91788114 470.11441352 500.85548938 536.27787253
- 565.4094319  590.36279875 583.31505223 574.48967441 564.07935796
- 499.80471518 430.04376914 352.18249915]</t>
+          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
+ 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
+ 374.78657101 363.97090624 352.18249915]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9050,8 +9050,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -9146,9 +9146,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[374.59069999 430.91788114 470.11441352 500.85548938 536.27787253
- 565.4094319  590.36279875 583.31505223 574.48967441 564.07935796
- 499.80471518 430.04376914 352.18249915]</t>
+          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
+ 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
+ 374.78657101 363.97090624 352.18249915]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9288,9 +9288,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-374.59069999 -430.91788114 -470.11441352 -500.85548938 -536.27787253
- -565.4094319  -590.36279875 -583.31505223 -574.48967441 -564.07935796
- -499.80471518 -430.04376914 -352.18249915]</t>
+          <t>[-433.45886933 -498.11098302 -543.35563483 -578.98977215 -620.2143425
+ -654.24896106 -683.49576931 -591.24559244 -493.58003057 -384.54058039
+ -374.78657101 -363.97090624 -352.18249915]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.06905694 0.0345724  0.01219576 0.01140427]</t>
+          <t>[0.02601662 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.06905694 0.0345724  0.01219576 0.01140427]</t>
+          <t>[0.02601662 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9685,8 +9685,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9869,8 +9869,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9893,8 +9893,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9917,8 +9917,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9941,8 +9941,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9965,8 +9965,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9989,8 +9989,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[78.22969381 78.22969381 78.22969381 39.5313894  39.5313894  39.5313894
- 13.29979863 11.91696322 10.63346464  7.63828443  4.82999322  2.81129359]</t>
+          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
+ 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10084,17 +10084,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-18675418.59634449]
- [-16302361.68283886]
- [-13928886.87053802]
- [-12221400.82878864]
- [-10513363.74559276]
- [ -8804864.98485241]
- [ -8444960.29096828]
- [ -8097853.64093313]
- [ -7763562.28083343]
- [ -7495934.79437705]
- [ -7266144.48060388]
+          <t>[[-15179644.57477847]
+ [-14132373.17195525]
+ [-13084618.49352921]
+ [-11930570.07020072]
+ [-10775879.22210644]
+ [ -9620648.19448792]
+ [ -8982189.62116224]
+ [ -8453418.30858828]
+ [ -8034420.2959698 ]
+ [ -7701192.56941366]
+ [ -7381134.66226718]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -10118,18 +10118,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428263.80594435]
- [2428854.56992425]
- [2429391.51090613]
- [2429643.42483438]
- [2430468.15727155]
- [2431134.84719227]
- [2428764.46214175]
- [2428892.8576484 ]
- [2428988.10123072]
- [2428867.21296221]
- [2428800.18099352]
- [2428683.7945209 ]]</t>
+          <t>[[2428182.36228258]
+ [2428619.74461094]
+ [2429017.59041094]
+ [2429687.11812573]
+ [2430301.68155796]
+ [2430798.64910754]
+ [2429705.94644639]
+ [2429549.89250651]
+ [2429386.09811265]
+ [2429248.32623385]
+ [2429314.34151656]
+ [2429297.86772874]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10152,18 +10152,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29099.19314387]
- [29107.08484484]
- [29114.33138732]
- [29117.8972565 ]
- [29129.42917623]
- [29139.0640577 ]
- [29106.50514688]
- [29108.61033527]
- [29110.34168779]
- [29108.97464723]
- [29108.5698208 ]
- [29107.75163546]]</t>
+          <t>[[29098.11184182]
+ [29103.95515054]
+ [29109.32475869]
+ [29118.44569902]
+ [29127.03800842]
+ [29134.21824715]
+ [29119.45947022]
+ [29117.59786569]
+ [29115.82660431]
+ [29114.63043016]
+ [29116.7202007 ]
+ [29117.87698774]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10186,18 +10186,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4309188.74150701]
- [-3955629.60340582]
- [-3601167.33299432]
- [-3092931.92683082]
- [-2582637.62154615]
- [-2071496.88956283]
- [-1764490.07943156]
- [-1456466.43952477]
- [-1147605.55214524]
- [ -858661.66238062]
- [ -568981.7199051 ]
- [ -278501.79322285]]</t>
+          <t>[[-4328375.06387457]
+ [-3973935.82235014]
+ [-3617972.07032587]
+ [-3106978.07552878]
+ [-2593734.6006956 ]
+ [-2079300.20220311]
+ [-1770546.7419616 ]
+ [-1461474.7694844 ]
+ [-1151636.22193945]
+ [ -861403.80308585]
+ [ -570219.36170081]
+ [ -278501.98193607]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10220,18 +10220,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.22580500e+08]
- [ 2.93095673e+08]
- [ 2.63544262e+08]
- [ 2.21192932e+08]
- [ 1.78696438e+08]
- [ 1.36146271e+08]
- [ 1.10599610e+08]
- [ 8.49913388e+07]
- [ 5.93374570e+07]
- [ 3.53635526e+07]
- [ 1.13663274e+07]
- [-1.26341967e+07]]</t>
+          <t>[[ 3.23984864e+08]
+ [ 2.94433637e+08]
+ [ 2.64769723e+08]
+ [ 2.22212632e+08]
+ [ 1.79496896e+08]
+ [ 1.36703589e+08]
+ [ 1.11026741e+08]
+ [ 8.53346563e+07]
+ [ 5.96039492e+07]
+ [ 3.55415290e+07]
+ [ 1.14497012e+07]
+ [-1.26341973e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10254,18 +10254,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299595.59120013]
- [1299580.42722498]
- [1299565.25995561]
- [1299638.33937511]
- [1299616.60650643]
- [1299594.86735128]
- [1299783.81729397]
- [1299782.16249517]
- [1299780.88513909]
- [1299819.10294338]
- [1299863.83528131]
- [1299928.69557204]]</t>
+          <t>[[1299696.94375691]
+ [1299681.72725792]
+ [1299666.50156843]
+ [1299708.38136491]
+ [1299686.56533758]
+ [1299664.7378989 ]
+ [1299658.54375541]
+ [1299683.75103483]
+ [1299725.6161243 ]
+ [1299756.19807727]
+ [1299755.63983115]
+ [1299755.55903062]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10439,18 +10439,18 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-374.59069999]
- [-430.91788114]
- [-470.11441352]
- [-500.85548938]
- [-536.27787253]
- [-565.4094319 ]
- [-590.36279875]
- [-583.31505223]
- [-574.48967441]
- [-564.07935796]
- [-499.80471518]
- [-430.04376914]
+          <t>[[-433.45886933]
+ [-498.11098302]
+ [-543.35563483]
+ [-578.98977215]
+ [-620.2143425 ]
+ [-654.24896106]
+ [-683.49576931]
+ [-591.24559244]
+ [-493.58003057]
+ [-384.54058039]
+ [-374.78657101]
+ [-363.97090624]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1417297.22967237]</t>
+          <t>[925300.85637238]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[46.0486084]</t>
+          <t>[61.26609596]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[4.78690795e+09 4.78690795e+09 4.21021448e+07 0.00000000e+00
+          <t>[4.97962092e+09 4.97962092e+09 3.30202948e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10575,10 +10575,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10829,10 +10829,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11214,10 +11214,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -24247.11758293
-  -25419.45680455  -29060.60430209  -35572.88881567  -45641.68090641
-  -60344.7167887   -81340.8022067   -92702.80983411 -106015.05336073
- -121697.97462647       0.               0.               0.
+          <t>[      0.               0.               0.          -27567.58323521
+  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
+  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
+ -148353.48280055       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11264,8 +11264,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[157.29689677 157.29689677 157.29689677 154.38097911 148.22401728
- 144.67040508]</t>
+          <t>[167.77025494 167.77025494 167.77025494 167.77025494 167.77025494
+ 167.77025494]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11284,7 +11284,7 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.96292466 0.95720407 0.99568821]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -11303,7 +11303,7 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.96292466 0.95720407 0.99568821]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -11366,10 +11366,10 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[6.05593053 6.05593053 6.05593053 6.05593053 6.05593053 6.05593053
- 6.05593053 6.05593053 6.05593053 6.05593053 5.98108864 5.90624675
- 5.83140487 5.74821807 5.66503127 5.58184446 5.57382189 5.56579931
- 5.55777673]</t>
+          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.           0.         -40.16855233]</t>
+          <t>[  0.   0. -40.]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[9175.06684751]</t>
+          <t>[10485.55077632]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[92223076.61074828]</t>
+          <t>[1.0539539e+08]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11457,7 +11457,7 @@
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[5.]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[106.83074635]</t>
+          <t>[131.0693847]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[908.20243292]</t>
+          <t>[1367.07599464]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[908.20243292]</t>
+          <t>[1367.07599464]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11549,8 +11549,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[9.40444352e+06 9.40444352e+06 3.03532539e+05 4.98038354e+09
- 4.98038354e+09 0.00000000e+00]</t>
+          <t>[1.07476895e+07 1.07476895e+07 3.68289794e+05 5.73239058e+09
+ 5.73239058e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11622,10 +11622,10 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11879,8 +11879,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[24297.41428608 24297.41428609 24297.41428608 23844.11507866
- 22886.97353897 22334.54038398]</t>
+          <t>[25925.56895576 25925.56895576 25925.56895576 25925.56895576
+ 25925.56895576 25925.56895576]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11907,8 +11907,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[439916.2558744  439916.25587441 439916.25587431 415751.80569218
- 367669.15358234 341683.6165591 ]</t>
+          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
+ 534407.51865842 534407.51865842]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11935,8 +11935,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[439916.2558744  439916.25587441 439916.25587431 415751.80569218
- 367669.15358234 341683.6165591 ]</t>
+          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
+ 534407.51865842 534407.51865842]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11963,8 +11963,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[1.05419664e+13 1.05419664e+13 1.05419664e+13 9.96289973e+12
- 8.81066747e+12 8.18796110e+12]</t>
+          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
+ 1.28063148e+13 1.28063148e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11991,8 +11991,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[1.05419664e+13 1.05419664e+13 1.05419664e+13 9.96289973e+12
- 8.81066747e+12 8.18796110e+12]</t>
+          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
+ 1.28063148e+13 1.28063148e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12019,8 +12019,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[8.35977932e+12 8.35977932e+12 8.35977932e+12 7.90057949e+12
- 6.98685930e+12 6.49305315e+12]</t>
+          <t>[1.01554077e+13 1.01554077e+13 1.01554077e+13 1.01554077e+13
+ 1.01554077e+13 1.01554077e+13]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12047,8 +12047,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[5.82252918e+11 5.82252918e+11 5.82252918e+11 5.71390249e+11
- 5.48453715e+11 5.35215442e+11]</t>
+          <t>[6.21269326e+11 6.21269326e+11 6.21269326e+11 6.21269326e+11
+ 6.21269326e+11 6.21269326e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12156,12 +12156,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.35002347 0.11931602 0.11931602 0.        ]
- [0.         0.         0.36466158 0.12953899 0.12953899 0.        ]
- [0.         0.         0.3736813  0.13604878 0.13604878 0.        ]]</t>
+          <t>[[0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12184,12 +12184,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.57478415 0.57478415 0.         0.         0.         0.05965801]
- [0.59874719 0.59874719 0.         0.         0.         0.06476949]
- [0.6135097  0.6135097  0.         0.         0.         0.06802439]]</t>
+          <t>[[0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1241.45122327]</t>
+          <t>[1292.17865451]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[5541560.01827584]</t>
+          <t>[5983171.69572365]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[2279802.58812205]</t>
+          <t>[2462929.0507968]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[47.01251305]</t>
+          <t>[47.5]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[6.77018795e+09 6.77018795e+09 8.06801159e+07 0.00000000e+00
+          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12328,9 +12328,9 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.03701917 11.88733539 11.73765162
- 11.57962293 11.41324933 11.24687573 11.15566635 11.13962119 11.12357603]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2379802.58812205]</t>
+          <t>[2562929.0507968]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[6041560.01827584]</t>
+          <t>[6483171.69572365]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[49.02896127]</t>
+          <t>[49.35334822]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[7.67423239e+09 7.67423239e+09 8.37690041e+07 0.00000000e+00
+          <t>[8.36466631e+09 8.36466631e+09 1.05709497e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[3797099.81779442]</t>
+          <t>[3488229.90716918]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[9830955.46916995]</t>
+          <t>[9234943.48449078]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.21999998]</t>
+          <t>[0.22]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22111131]</t>
+          <t>[0.22123536]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.21999998 0.22111131 0.89203544 0.95598953 0.96670447 1.65922279]</t>
+          <t>[0.22       0.22123536 0.91024525 0.94313985 1.06630231 1.75958291]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22111131 0.96670447 1.83429582]</t>
+          <t>[0.22123536 1.06630231 1.86444285]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.21999998 0.89203544 1.65922279]</t>
+          <t>[0.22       0.94313985 1.75958291]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.19130096 0.         0.        ]</t>
+          <t>[4.14887393 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12702,9 +12702,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.9551293    0.7441104   -2.98343532   3.91179339  -1.62759776]
- [ -3.2380315    1.05567635   7.58145514  -8.09911619   3.7000162 ]
- [ -7.81881733   9.88150373  12.04883909   3.94800683 -17.05953232]]</t>
+          <t>[[  0.71412898  -0.07320713   1.48300085  -1.73099962   0.60707692]
+ [ -3.0500299   -0.90446147  15.30270094 -21.80022102  11.45201145]
+ [ -6.74648697   5.17618504  16.64300739  -4.93843621  -9.13426926]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12723,9 +12723,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.94739428   0.74022394  -2.94926892   3.85548898  -1.59383829]
- [ -3.23562923   0.7071121    8.56753889 -10.47821249   5.43919074]
- [ -6.06039987   6.93791395   6.83325365   6.84677789 -13.55754563]]</t>
+          <t>[[  0.70773291  -0.0790815    1.52385255  -1.80558003   0.65307608]
+ [ -3.01943656  -1.43594966  17.06453226 -26.14826234  14.5391163 ]
+ [ -5.78840884   3.85757887  14.24668399  -4.96888285  -6.34697118]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12744,9 +12744,9 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -0.36904306   5.46020587 -26.70171181  43.33057825 -20.72002925]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-0.99529406  3.1134978   4.0788165  -9.43087637  4.23385613]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
@@ -12765,9 +12765,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.59691491   2.09892266  -5.43509581   6.3144549   -2.57519666]
- [ -0.25165224   3.62113633  -8.39852218   9.84964673  -3.82060864]
- [  2.99271014  -3.64349396  13.85001729 -14.26612691   2.06689343]]</t>
+          <t>[[  0.89161116   2.19462962  -6.16911065   6.3411245   -2.25825464]
+ [ -0.81878715   6.37499727 -13.7779875   13.37952293  -4.15774556]
+ [  2.04337094  -1.36800335   4.03973774  -2.83988158  -0.87522375]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12786,9 +12786,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.58485644  2.1235364  -5.49354084  6.37280214 -2.58765414]
- [-0.3520959   3.85973751 -9.08615062 10.4731611  -3.89465209]
- [ 1.71324419 -0.88270612  5.25936297 -4.34153007 -0.74837097]]</t>
+          <t>[[  0.87502695   2.23601943  -6.24935788   6.40827909  -2.2699676 ]
+ [ -1.03501443   6.9433517  -15.02212347  14.32631723  -4.21253103]
+ [  1.38819212   0.41025377  -0.0935542    1.21503694  -1.91992862]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12807,9 +12807,9 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.2744384   26.8769975  -74.6045357   89.89307352 -37.89109691]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -18.17874805  140.79319222 -368.25191866  403.62826665 -156.99079215]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
@@ -12832,37 +12832,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.86367295e-04]
- [3.37426321e-04]
- [1.91478203e-05]
- [2.83672053e-03]
- [7.40505246e-03]
- [1.38557682e-02]
- [2.21240529e-02]
- [3.21448754e-02]
- [4.38530229e-02]
- [5.71831354e-02]
- [6.44399622e-02]
- [7.20930897e-02]
- [8.01490341e-02]
- [8.86149134e-02]
- [9.74989115e-02]
- [1.06809829e-01]
- [1.11626973e-01]
- [1.16552047e-01]
- [1.21584197e-01]
- [1.61448185e-01]
- [2.06947373e-01]
- [2.57519742e-01]
- [3.42064144e-01]
- [4.41593221e-01]
- [5.52864783e-01]
- [6.27542591e-01]
- [7.09661610e-01]
- [7.97639812e-01]
- [8.83730611e-01]
- [9.71595775e-01]
- [1.05726745e+00]]</t>
+          <t>[[1.84328965e-04]
+ [3.01972612e-04]
+ [4.75146503e-05]
+ [2.48169438e-03]
+ [6.34500972e-03]
+ [1.17542864e-02]
+ [1.86563567e-02]
+ [2.69979254e-02]
+ [3.67255943e-02]
+ [4.77858858e-02]
+ [5.37990137e-02]
+ [6.01252189e-02]
+ [6.67578083e-02]
+ [7.36900886e-02]
+ [8.09153814e-02]
+ [8.84270124e-02]
+ [9.22881103e-02]
+ [9.62182862e-02]
+ [1.00216705e-01]
+ [1.34827681e-01]
+ [1.78854233e-01]
+ [2.31363415e-01]
+ [3.21659099e-01]
+ [4.28413591e-01]
+ [5.48068041e-01]
+ [6.25064474e-01]
+ [7.06674761e-01]
+ [7.94429357e-01]
+ [8.81920847e-01]
+ [9.71694325e-01]
+ [1.05973328e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.05726745]</t>
+          <t>[1.05973328]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12908,24 +12908,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-44952907.00406548]
- [-42570222.46592031]
- [-40067514.70232173]
- [-38315158.65100473]
- [-36546918.08858899]
- [-34745171.20868878]
- [-32888706.77176672]
- [-30950495.32899452]
- [-28894476.77542457]
- [-27818015.72757944]
- [-26710720.38509756]
- [-25565461.31661185]
- [-24605555.95150549]
- [-23857431.88658256]
- [-23120287.52725957]
- [-22754724.9842493 ]
- [-22389691.86174169]
- [-22025188.19166055]]</t>
+          <t>[[-42228516.43436101]
+ [-39686169.71739706]
+ [-37007363.46496855]
+ [-35126127.22471119]
+ [-33226851.85698009]
+ [-31289546.20698587]
+ [-29290214.11882558]
+ [-27198314.99528399]
+ [-24973094.35257511]
+ [-23795843.29699851]
+ [-22562686.68441746]
+ [-21262368.93686927]
+ [-20170136.78553253]
+ [-19322687.87987806]
+ [-18475238.97422328]
+ [-18051514.52139574]
+ [-17627790.0685682 ]
+ [-17204065.61574036]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12948,24 +12948,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[-4278339.01940766]
- [-9924115.80453734]
- [-9722601.49412576]
- [ 2428526.03966055]
- [ 2428779.92630022]
- [ 2429039.69846407]
- [ 2429314.46996049]
- [ 2429616.39989821]
- [ 2429962.73191306]
- [ 2429093.6056482 ]
- [ 2429192.03570336]
- [ 2429303.58524649]
- [ 2429231.11281548]
- [ 2428922.42401975]
- [ 2428954.99474853]
- [ 2428453.80362801]
- [ 2428464.85683587]
- [ 2428475.78258939]]</t>
+          <t>[[-4284114.30169103]
+ [-9422801.84148106]
+ [-8909692.12284653]
+ [ 2428470.72349775]
+ [ 2428695.02931387]
+ [ 2428925.42595564]
+ [ 2429170.41005958]
+ [ 2429441.3073732 ]
+ [ 2429754.21826773]
+ [ 2428982.71556465]
+ [ 2429089.76121815]
+ [ 2429211.57829398]
+ [ 2429147.74636079]
+ [ 2428843.9406437 ]
+ [ 2428880.33601435]
+ [ 2428416.32902703]
+ [ 2428425.10925293]
+ [ 2428433.78331507]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12988,24 +12988,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -55157.54368997]
- [-128174.91386399]
- [-126441.36385326]
- [  29102.45371344]
- [  29105.73482282]
- [  29109.09969355]
- [  29112.66673481]
- [  29116.5943708 ]
- [  29121.10775811]
- [  29109.87122734]
- [  29111.15864545]
- [  29112.61879287]
- [  29111.6915526 ]
- [  29107.69269278]
- [  29108.12770444]
- [  29101.6113031 ]
- [  29101.75843917]
- [  29101.90406618]]</t>
+          <t>[[ -55245.56616472]
+ [-121751.26421453]
+ [-115990.67619437]
+ [  29101.74168551]
+ [  29104.64083895]
+ [  29107.62549496]
+ [  29110.80605607]
+ [  29114.33010226]
+ [  29118.40787364]
+ [  29108.43395523]
+ [  29109.83184014]
+ [  29111.42353679]
+ [  29110.6065964 ]
+ [  29106.66972929]
+ [  29107.15198938]
+ [  29101.12048754]
+ [  29101.23722852]
+ [  29101.35269533]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13028,24 +13028,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -739933.02141658]
- [-2933502.39140367]
- [-5438117.25116125]
- [-6172783.28842734]
- [-5975636.09643357]
- [-5777775.10989408]
- [-5579315.08839825]
- [-5380372.15220455]
- [-5181066.39730635]
- [-5081365.22558599]
- [-4981621.98774762]
- [-4881847.01544325]
- [-4782053.52096474]
- [-4682229.56590346]
- [-4582357.16897968]
- [-4532415.85827541]
- [-4482464.98358257]
- [-4432505.62135447]]</t>
+          <t>[[ -832645.39629137]
+ [-3014585.36101957]
+ [-5395732.71689356]
+ [-6159499.96703668]
+ [-5963088.84808255]
+ [-5766167.25666821]
+ [-5568832.79859186]
+ [-5371184.55654665]
+ [-5173325.53478697]
+ [-5074395.79772199]
+ [-4975461.25321269]
+ [-4876536.84643006]
+ [-4777640.25518451]
+ [-4678763.82093888]
+ [-4579893.7070414 ]
+ [-4530474.10972424]
+ [-4481059.33981379]
+ [-4431650.23621183]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13068,24 +13068,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[5.75685774e+07]
- [2.27915365e+08]
- [4.21637467e+08]
- [4.77593974e+08]
- [4.61160660e+08]
- [4.44672332e+08]
- [4.28138014e+08]
- [4.11566810e+08]
- [3.94968103e+08]
- [3.86665236e+08]
- [3.78359275e+08]
- [3.70051028e+08]
- [3.61741526e+08]
- [3.53429859e+08]
- [3.45114658e+08]
- [3.40956739e+08]
- [3.36798138e+08]
- [3.32638936e+08]]</t>
+          <t>[[6.47757070e+07]
+ [2.34186136e+08]
+ [4.18293401e+08]
+ [4.76505307e+08]
+ [4.60129143e+08]
+ [4.43713655e+08]
+ [4.27266502e+08]
+ [4.10795430e+08]
+ [3.94308466e+08]
+ [3.86065123e+08]
+ [3.77821513e+08]
+ [3.69578792e+08]
+ [3.61338321e+08]
+ [3.53099508e+08]
+ [3.44861290e+08]
+ [3.40743410e+08]
+ [3.36625928e+08]
+ [3.32508908e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13108,24 +13108,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 214228.70407764]
- [ 468176.77257068]
- [ 808931.08872631]
- [1299671.8820058 ]
- [1299662.66086268]
- [1299653.35626568]
- [1299643.87549328]
- [1299634.10694238]
- [1299623.90840269]
- [1299614.04154688]
- [1299610.20878568]
- [1299606.11021713]
- [1299601.79825703]
- [1299598.50188763]
- [1299596.30794655]
- [1299593.20815025]
- [1299591.30735422]
- [1299589.40407021]]</t>
+          <t>[[ 214322.06831683]
+ [ 468332.56474577]
+ [ 809072.76854084]
+ [1299643.54972834]
+ [1299634.27249288]
+ [1299624.9064326 ]
+ [1299615.35296939]
+ [1299605.49378159]
+ [1299595.17828359]
+ [1299584.20553502]
+ [1299578.40048683]
+ [1299572.31982286]
+ [1299565.90805065]
+ [1299560.52238228]
+ [1299556.34374209]
+ [1299552.16512876]
+ [1299550.07583216]
+ [1299547.9865423 ]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13148,9 +13148,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42852604e+06]
- [ 2.91024537e+04]
- [-4.00675147e+07]]</t>
+          <t>[[ 2.42847072e+06]
+ [ 2.91017417e+04]
+ [-3.70073635e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13173,9 +13173,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.36910124e+06]
- [ 4.93963171e+08]
- [ 1.29967188e+06]]</t>
+          <t>[[-6.35530258e+06]
+ [ 4.92834437e+08]
+ [ 1.29964355e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13227,11 +13227,11 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -13258,8 +13258,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+ 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13358,11 +13358,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955
- 2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13385,11 +13385,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13412,11 +13412,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13439,12 +13439,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647  78.22969381  78.22969381
-  78.22969381  39.5313894   39.5313894   39.5313894   13.29979863
-  11.91696322  10.63346464   7.63828443   4.82999322   2.81129359]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
+  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
+  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13467,11 +13467,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13494,11 +13494,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13623,36 +13623,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-4.49529070e+07]
- [-4.25702225e+07]
- [-4.00675147e+07]
- [-3.83151587e+07]
- [-3.65469181e+07]
- [-3.47451712e+07]
- [-3.28887068e+07]
- [-3.09504953e+07]
- [-2.88944768e+07]
- [-2.78180157e+07]
- [-2.67107204e+07]
- [-2.55654613e+07]
- [-2.46055560e+07]
- [-2.38574319e+07]
- [-2.31202875e+07]
- [-2.27547250e+07]
- [-2.23896919e+07]
- [-2.20251882e+07]
- [-1.86746439e+07]
- [-1.63021578e+07]
- [-1.39291009e+07]
- [-1.22221796e+07]
- [-1.05146936e+07]
- [-8.80665650e+06]
- [-8.44684351e+06]
- [-8.09965557e+06]
- [-7.76526569e+06]
- [-7.49728119e+06]
- [-7.26685015e+06]
- [ 1.50612323e-08]]</t>
+          <t>[[-4.22285164e+07]
+ [-3.96861697e+07]
+ [-3.70073635e+07]
+ [-3.51261272e+07]
+ [-3.32268519e+07]
+ [-3.12895462e+07]
+ [-2.92902141e+07]
+ [-2.71983150e+07]
+ [-2.49730944e+07]
+ [-2.37958433e+07]
+ [-2.25626867e+07]
+ [-2.12623689e+07]
+ [-2.01701368e+07]
+ [-1.93226879e+07]
+ [-1.84752390e+07]
+ [-1.80515145e+07]
+ [-1.76277901e+07]
+ [-1.72040656e+07]
+ [-1.51797942e+07]
+ [-1.41331795e+07]
+ [-1.30859081e+07]
+ [-1.19325158e+07]
+ [-1.07784673e+07]
+ [-9.62377649e+06]
+ [-8.98499523e+06]
+ [-8.45525123e+06]
+ [-8.03519454e+06]
+ [-7.70139895e+06]
+ [-7.38124271e+06]
+ [ 1.90921128e-08]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13675,36 +13675,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.27833902e+06]
- [-9.92411580e+06]
- [-9.72260149e+06]
- [ 2.42852604e+06]
- [ 2.42877993e+06]
- [ 2.42903970e+06]
- [ 2.42931447e+06]
- [ 2.42961640e+06]
- [ 2.42996273e+06]
- [ 2.42909361e+06]
- [ 2.42919204e+06]
- [ 2.42930359e+06]
- [ 2.42923111e+06]
- [ 2.42892242e+06]
- [ 2.42895499e+06]
- [ 2.42845380e+06]
- [ 2.42846486e+06]
- [ 2.42847578e+06]
- [ 2.43183734e+06]
- [ 2.43239638e+06]
- [ 2.43289613e+06]
- [ 2.43211008e+06]
- [ 2.43285322e+06]
- [ 2.43343635e+06]
- [ 2.42922403e+06]
- [ 2.42930354e+06]
- [ 2.42934746e+06]
- [ 2.42912035e+06]
- [ 2.42897459e+06]
- [ 8.54865500e+02]]</t>
+          <t>[[-4.28411430e+06]
+ [-9.42280184e+06]
+ [-8.90969212e+06]
+ [ 2.42847072e+06]
+ [ 2.42869503e+06]
+ [ 2.42892543e+06]
+ [ 2.42917041e+06]
+ [ 2.42944131e+06]
+ [ 2.42975422e+06]
+ [ 2.42898272e+06]
+ [ 2.42908976e+06]
+ [ 2.42921158e+06]
+ [ 2.42914775e+06]
+ [ 2.42884394e+06]
+ [ 2.42888034e+06]
+ [ 2.42841633e+06]
+ [ 2.42842511e+06]
+ [ 2.42843378e+06]
+ [ 2.42942048e+06]
+ [ 2.42983395e+06]
+ [ 2.43020315e+06]
+ [ 2.43094535e+06]
+ [ 2.43149771e+06]
+ [ 2.43193162e+06]
+ [ 2.43030221e+06]
+ [ 2.43001550e+06]
+ [ 2.42970787e+06]
+ [ 2.42943875e+06]
+ [ 2.42941409e+06]
+ [ 1.39938100e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13727,36 +13727,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-5.51575437e+04]
- [-1.28174914e+05]
- [-1.26441364e+05]
- [ 2.91024537e+04]
- [ 2.91057348e+04]
- [ 2.91090997e+04]
- [ 2.91126667e+04]
- [ 2.91165944e+04]
- [ 2.91211078e+04]
- [ 2.91098712e+04]
- [ 2.91111586e+04]
- [ 2.91126188e+04]
- [ 2.91116916e+04]
- [ 2.91076927e+04]
- [ 2.91081277e+04]
- [ 2.91016113e+04]
- [ 2.91017584e+04]
- [ 2.91019041e+04]
- [ 2.91458177e+04]
- [ 2.91533380e+04]
- [ 2.91601419e+04]
- [ 2.91501998e+04]
- [ 2.91607533e+04]
- [ 2.91693840e+04]
- [ 2.91125878e+04]
- [ 2.91140856e+04]
- [ 2.91151787e+04]
- [ 2.91124323e+04]
- [ 2.91110265e+04]
- [ 1.37688562e+01]]</t>
+          <t>[[-5.52455662e+04]
+ [-1.21751264e+05]
+ [-1.15990676e+05]
+ [ 2.91017417e+04]
+ [ 2.91046408e+04]
+ [ 2.91076255e+04]
+ [ 2.91108061e+04]
+ [ 2.91143301e+04]
+ [ 2.91184079e+04]
+ [ 2.91084340e+04]
+ [ 2.91098318e+04]
+ [ 2.91114235e+04]
+ [ 2.91106066e+04]
+ [ 2.91066697e+04]
+ [ 2.91071520e+04]
+ [ 2.91011205e+04]
+ [ 2.91012372e+04]
+ [ 2.91013527e+04]
+ [ 2.91142640e+04]
+ [ 2.91198265e+04]
+ [ 2.91248537e+04]
+ [ 2.91349780e+04]
+ [ 2.91428223e+04]
+ [ 2.91492435e+04]
+ [ 2.91274055e+04]
+ [ 2.91238445e+04]
+ [ 2.91202106e+04]
+ [ 2.91173266e+04]
+ [ 2.91182964e+04]
+ [ 2.29909465e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13779,36 +13779,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-7.39933021e+05]
- [-2.93350239e+06]
- [-5.43811725e+06]
- [-6.17278329e+06]
- [-5.97563610e+06]
- [-5.77777511e+06]
- [-5.57931509e+06]
- [-5.38037215e+06]
- [-5.18106640e+06]
- [-5.08136523e+06]
- [-4.98162199e+06]
- [-4.88184702e+06]
- [-4.78205352e+06]
- [-4.68222957e+06]
- [-4.58235717e+06]
- [-4.53241586e+06]
- [-4.48246498e+06]
- [-4.43250562e+06]
- [-4.07034676e+06]
- [-3.70799716e+06]
- [-3.34593645e+06]
- [-2.82860646e+06]
- [-2.31057550e+06]
- [-1.79299351e+06]
- [-1.48290354e+06]
- [-1.17212386e+06]
- [-8.60839467e+05]
- [-5.69967460e+05]
- [-2.78767184e+05]
- [-3.36916917e-04]]</t>
+          <t>[[-8.32645396e+05]
+ [-3.01458536e+06]
+ [-5.39573272e+06]
+ [-6.15949997e+06]
+ [-5.96308885e+06]
+ [-5.76616726e+06]
+ [-5.56883280e+06]
+ [-5.37118456e+06]
+ [-5.17332553e+06]
+ [-5.07439580e+06]
+ [-4.97546125e+06]
+ [-4.87653685e+06]
+ [-4.77764026e+06]
+ [-4.67876382e+06]
+ [-4.57989371e+06]
+ [-4.53047411e+06]
+ [-4.48105934e+06]
+ [-4.43165024e+06]
+ [-4.07310870e+06]
+ [-3.71310941e+06]
+ [-3.35208347e+06]
+ [-2.83461351e+06]
+ [-2.31573256e+06]
+ [-1.79645175e+06]
+ [-1.48522083e+06]
+ [-1.17396942e+06]
+ [-8.62325549e+05]
+ [-5.70859693e+05]
+ [-2.78945854e+05]
+ [-6.52944062e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13831,36 +13831,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 5.75685774e+07]
- [ 2.27915365e+08]
- [ 4.21637467e+08]
- [ 4.77593974e+08]
- [ 4.61160660e+08]
- [ 4.44672332e+08]
- [ 4.28138014e+08]
- [ 4.11566810e+08]
- [ 3.94968103e+08]
- [ 3.86665236e+08]
- [ 3.78359275e+08]
- [ 3.70051028e+08]
- [ 3.61741526e+08]
- [ 3.53429859e+08]
- [ 3.45114658e+08]
- [ 3.40956739e+08]
- [ 3.36798138e+08]
- [ 3.32638936e+08]
- [ 3.02492382e+08]
- [ 2.72334432e+08]
- [ 2.42201721e+08]
- [ 1.99155917e+08]
- [ 1.56070352e+08]
- [ 1.13031260e+08]
- [ 8.72516777e+07]
- [ 6.14366860e+07]
- [ 3.56027483e+07]
- [ 1.14876374e+07]
- [-1.26176976e+07]
- [ 2.09181855e-02]]</t>
+          <t>[[ 6.47757070e+07]
+ [ 2.34186136e+08]
+ [ 4.18293401e+08]
+ [ 4.76505307e+08]
+ [ 4.60129143e+08]
+ [ 4.43713655e+08]
+ [ 4.27266502e+08]
+ [ 4.10795430e+08]
+ [ 3.94308466e+08]
+ [ 3.86065123e+08]
+ [ 3.77821513e+08]
+ [ 3.69578792e+08]
+ [ 3.61338321e+08]
+ [ 3.53099508e+08]
+ [ 3.44861290e+08]
+ [ 3.40743410e+08]
+ [ 3.36625928e+08]
+ [ 3.32508908e+08]
+ [ 3.02639587e+08]
+ [ 2.72663005e+08]
+ [ 2.42612620e+08]
+ [ 1.99562665e+08]
+ [ 1.56419778e+08]
+ [ 1.13261053e+08]
+ [ 8.73983075e+07]
+ [ 6.15437297e+07]
+ [ 3.56804327e+07]
+ [ 1.15308167e+07]
+ [-1.26071736e+07]
+ [ 3.97411880e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13883,35 +13883,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 214228.70407764]
- [ 468176.77257068]
- [ 808931.08872631]
- [1299671.8820058 ]
- [1299662.66086268]
- [1299653.35626568]
- [1299643.87549328]
- [1299634.10694238]
- [1299623.90840269]
- [1299614.04154688]
- [1299610.20878568]
- [1299606.11021713]
- [1299601.79825703]
- [1299598.50188763]
- [1299596.30794655]
- [1299593.20815025]
- [1299591.30735422]
- [1299589.40407021]
- [1299595.56979101]
- [1299580.42227368]
- [1299565.25865252]
- [1299638.34209914]
- [1299616.61641879]
- [1299594.88427661]
- [1299783.88297852]
- [1299782.23411551]
- [1299780.95632067]
- [1299819.18152035]
- [1299863.90764634]
+          <t>[[ 214322.06831683]
+ [ 468332.56474577]
+ [ 809072.76854084]
+ [1299643.54972834]
+ [1299634.27249288]
+ [1299624.9064326 ]
+ [1299615.35296939]
+ [1299605.49378159]
+ [1299595.17828359]
+ [1299584.20553502]
+ [1299578.40048683]
+ [1299572.31982286]
+ [1299565.90805065]
+ [1299560.52238228]
+ [1299556.34374209]
+ [1299552.16512876]
+ [1299550.07583216]
+ [1299547.9865423 ]
+ [1299696.90265974]
+ [1299681.72943394]
+ [1299666.5132912 ]
+ [1299708.40574408]
+ [1299686.60211815]
+ [1299664.78682196]
+ [1299658.60797545]
+ [1299683.82060062]
+ [1299725.67349568]
+ [1299756.2265236 ]
+ [1299755.64772689]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13935,24 +13935,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-8248894.43071314]
- [10808598.9480862 ]
- [32414781.94555385]
- [38986205.86868951]
- [37789187.06158049]
- [36597016.88309082]
- [35417473.71304896]
- [34260212.1966068 ]
- [33137815.95277614]
- [33058851.33529538]
- [33456875.00770239]
- [33867404.52526784]
- [34271548.09964152]
- [34660817.04279904]
- [35046220.53128778]
- [35294777.69643013]
- [35007873.52430324]
- [34718510.5421024 ]]</t>
+          <t>[[-6597674.64452458]
+ [10139755.9051047 ]
+ [28303916.78431388]
+ [34358322.72899121]
+ [33385763.62833883]
+ [32420938.9498886 ]
+ [31471790.1150875 ]
+ [30548236.09851347]
+ [29663295.02131929]
+ [29240285.47555303]
+ [28834070.68060733]
+ [28448145.8539473 ]
+ [27999828.27477635]
+ [27478021.33034195]
+ [26956270.44107866]
+ [26695510.88109689]
+ [26434788.8346227 ]
+ [26174110.38386125]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13975,24 +13975,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2425079.44578585]
- [5623718.01441051]
- [5528336.59229071]
- [1439787.32163023]
- [1439930.05392206]
- [1440076.10203922]
- [1440230.6024627 ]
- [1440400.4086369 ]
- [1440595.24074988]
- [1449533.03090444]
- [1468821.28986882]
- [1488634.85709082]
- [1510026.08840301]
- [1533082.50526582]
- [1557066.06557646]
- [1570216.50378569]
- [1572614.19062386]
- [1575019.09626863]]</t>
+          <t>[[2275573.6448899 ]
+ [5004924.3317631 ]
+ [4749655.712804  ]
+ [1345440.65143613]
+ [1345558.82867985]
+ [1345680.22265255]
+ [1345809.32179451]
+ [1345952.10967374]
+ [1346117.09319925]
+ [1345708.59970237]
+ [1345764.93267878]
+ [1345829.06391742]
+ [1345795.00694134]
+ [1345634.09833143]
+ [1345653.14757262]
+ [1345407.5801087 ]
+ [1345412.1246923 ]
+ [1345416.61313667]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14017,17 +14017,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-19815805.17870662]
- [-37021780.92425557]
- [-31820045.89922308]
- [-26656844.58071264]
- [-21539697.71365076]
- [-16481026.91646166]
- [-11499754.71872426]
- [ -7770033.1901577 ]
- [ -5310292.55415691]
- [ -2948321.96261023]
- [  -893359.9535795 ]
+ [-21143650.00018121]
+ [-39502587.51468726]
+ [-33952287.45011268]
+ [-28443103.21184767]
+ [-22983059.50527489]
+ [-17585410.31376875]
+ [-12270346.15388467]
+ [ -8342578.77493327]
+ [ -5773850.50080107]
+ [ -3246843.86866905]
+ [  -997330.07365149]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14091,24 +14091,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.04708865]
- [0.07401555]
- [0.23737054]
- [0.3351256 ]
- [0.30729646]
- [0.28009281]
- [0.25370914]
- [0.22841818]
- [0.20459825]
- [0.19145029]
- [0.18563557]
- [0.18072617]
- [0.17715427]
- [0.17683473]
- [0.17880569]
- [0.18007525]
- [0.17862177]
- [0.17715592]]</t>
+          <t>[[0.03909485]
+ [0.06786131]
+ [0.22256766]
+ [0.32586799]
+ [0.29689361]
+ [0.26858514]
+ [0.24115856]
+ [0.21492493]
+ [0.19032883]
+ [0.17429528]
+ [0.16378561]
+ [0.15409696]
+ [0.14552107]
+ [0.14028142]
+ [0.13763699]
+ [0.13631531]
+ [0.13499411]
+ [0.13367322]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14127,24 +14127,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.07700847]
- [0.0924673 ]
- [0.34864142]
- [0.37859281]
- [0.3286008 ]
- [0.27907877]
- [0.23015532]
- [0.18206821]
- [0.13528378]
- [0.06222758]
- [0.05384483]
- [0.0468426 ]
- [0.0414206 ]
- [0.0394277 ]
- [0.03866616]
- [0.03531566]
- [0.03483342]
- [0.03435155]]</t>
+          <t>[[0.0711731 ]
+ [0.08466304]
+ [0.37012411]
+ [0.40731353]
+ [0.3527852 ]
+ [0.29870868]
+ [0.2451904 ]
+ [0.19242525]
+ [0.14078205]
+ [0.0593246 ]
+ [0.04879507]
+ [0.04009297]
+ [0.03355611]
+ [0.03065847]
+ [0.02950144]
+ [0.0257738 ]
+ [0.0252384 ]
+ [0.02470415]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14163,24 +14163,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.11787078]
- [0.20996346]
- [0.3149072 ]
- [0.34313636]
- [0.33031586]
- [0.31740949]
- [0.30438074]
- [0.29118192]
- [0.27774804]
- [0.27409963]
- [0.27349791]
- [0.27274271]
- [0.27266071]
- [0.27355501]
- [0.27528187]
- [0.27657908]
- [0.27383776]
- [0.27107986]]</t>
+          <t>[[0.11158069]
+ [0.19505273]
+ [0.28578069]
+ [0.3124571 ]
+ [0.300313  ]
+ [0.28808529]
+ [0.27573247]
+ [0.26320089]
+ [0.25041791]
+ [0.24390779]
+ [0.23729428]
+ [0.23055681]
+ [0.22421841]
+ [0.21834753]
+ [0.21247904]
+ [0.20954622]
+ [0.20661412]
+ [0.20368278]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14203,36 +14203,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-8.24889443e+06]
- [ 1.08085989e+07]
- [ 3.24147819e+07]
- [ 3.89862059e+07]
- [ 3.77891871e+07]
- [ 3.65970169e+07]
- [ 3.54174737e+07]
- [ 3.42602122e+07]
- [ 3.31378160e+07]
- [ 3.30588513e+07]
- [ 3.34568750e+07]
- [ 3.38674045e+07]
- [ 3.42715481e+07]
- [ 3.46608170e+07]
- [ 3.50462205e+07]
- [ 3.52947777e+07]
- [ 3.50078735e+07]
- [ 3.47185105e+07]
- [ 3.57020266e+07]
- [ 3.23418245e+07]
- [ 2.89854328e+07]
- [ 4.65140034e+07]
- [ 3.57241525e+07]
- [ 2.49478255e+07]
- [ 5.27569329e+07]
- [ 3.54953411e+07]
- [ 1.52356282e+07]
- [-7.11534326e+06]
- [-2.99615765e+06]
- [ 4.95306520e-02]]</t>
+          <t>[[-6.59767464e+06]
+ [ 1.01397559e+07]
+ [ 2.83039168e+07]
+ [ 3.43583227e+07]
+ [ 3.33857636e+07]
+ [ 3.24209389e+07]
+ [ 3.14717901e+07]
+ [ 3.05482361e+07]
+ [ 2.96632950e+07]
+ [ 2.92402855e+07]
+ [ 2.88340707e+07]
+ [ 2.84481459e+07]
+ [ 2.79998283e+07]
+ [ 2.74780213e+07]
+ [ 2.69562704e+07]
+ [ 2.66955109e+07]
+ [ 2.64347888e+07]
+ [ 2.61741104e+07]
+ [ 6.99920097e+07]
+ [ 6.26541536e+07]
+ [ 5.52965306e+07]
+ [ 5.77262308e+07]
+ [ 4.36030411e+07]
+ [ 2.94749533e+07]
+ [ 2.56790144e+07]
+ [ 2.51616120e+07]
+ [ 1.97380628e+07]
+ [-1.61945478e+06]
+ [ 1.30051572e+06]
+ [ 6.35391839e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14255,36 +14255,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.42507945e+06]
- [5.62371801e+06]
- [5.52833659e+06]
- [1.43978732e+06]
- [1.43993005e+06]
- [1.44007610e+06]
- [1.44023060e+06]
- [1.44040041e+06]
- [1.44059524e+06]
- [1.44953303e+06]
- [1.46882129e+06]
- [1.48863486e+06]
- [1.51002609e+06]
- [1.53308251e+06]
- [1.55706607e+06]
- [1.57021650e+06]
- [1.57261419e+06]
- [1.57501910e+06]
- [1.75898016e+06]
- [1.75936222e+06]
- [1.75970366e+06]
- [3.50649063e+06]
- [3.50750320e+06]
- [3.50829708e+06]
- [1.01028661e+07]
- [1.05002280e+07]
- [1.09298562e+07]
- [1.28277318e+07]
- [1.50951827e+07]
- [5.91054628e+03]]</t>
+          <t>[[2.27557364e+06]
+ [5.00492433e+06]
+ [4.74965571e+06]
+ [1.34544065e+06]
+ [1.34555883e+06]
+ [1.34568022e+06]
+ [1.34580932e+06]
+ [1.34595211e+06]
+ [1.34611709e+06]
+ [1.34570860e+06]
+ [1.34576493e+06]
+ [1.34582906e+06]
+ [1.34579501e+06]
+ [1.34563410e+06]
+ [1.34565315e+06]
+ [1.34540758e+06]
+ [1.34541212e+06]
+ [1.34541661e+06]
+ [3.97312363e+06]
+ [3.97376724e+06]
+ [3.97434172e+06]
+ [5.16985428e+06]
+ [5.17097221e+06]
+ [5.17184958e+06]
+ [5.63459033e+06]
+ [6.87263859e+06]
+ [8.80521888e+06]
+ [1.04628800e+07]
+ [1.09322826e+07]
+ [5.99480495e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14309,34 +14309,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.98158052e+07]
- [-3.70217809e+07]
- [-3.18200459e+07]
- [-2.66568446e+07]
- [-2.15396977e+07]
- [-1.64810269e+07]
- [-1.14997547e+07]
- [-7.77003319e+06]
- [-5.31029255e+06]
- [-2.94832196e+06]
- [-8.93359954e+05]
+ [-2.11436500e+07]
+ [-3.95025875e+07]
+ [-3.39522875e+07]
+ [-2.84431032e+07]
+ [-2.29830595e+07]
+ [-1.75854103e+07]
+ [-1.22703462e+07]
+ [-8.34257877e+06]
+ [-5.77385050e+06]
+ [-3.24684387e+06]
+ [-9.97330074e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.70719610e+03]
- [-4.09687792e+03]
- [-4.58961219e+03]
- [-4.95224750e+03]
- [-1.06121802e+04]
- [-1.12857987e+04]
- [-1.18506560e+04]
- [-3.41880728e+04]
- [-3.36916501e+04]
- [-3.30951635e+04]
- [-3.30017567e+04]
- [-2.87874461e+04]
- [-2.44022128e+04]]</t>
+ [-1.98456370e+03]
+ [-1.26915609e+04]
+ [-1.42179835e+04]
+ [-1.53413775e+04]
+ [-2.13529932e+04]
+ [-2.27083954e+04]
+ [-2.38449567e+04]
+ [-2.27001451e+04]
+ [-1.92123708e+04]
+ [-1.55297670e+04]
+ [-1.34709362e+04]
+ [-1.31473809e+04]
+ [-1.27966554e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14407,36 +14407,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[4.70886490e-02]
- [7.40155537e-02]
- [2.37370536e-01]
- [3.35125601e-01]
- [3.07296464e-01]
- [2.80092808e-01]
- [2.53709145e-01]
- [2.28418177e-01]
- [2.04598245e-01]
- [1.91450289e-01]
- [1.85635568e-01]
- [1.80726171e-01]
- [1.77154272e-01]
- [1.76834730e-01]
- [1.78805685e-01]
- [1.80075248e-01]
- [1.78621766e-01]
- [1.77160249e-01]
- [1.82285110e-01]
- [1.65261755e-01]
- [1.48273094e-01]
- [2.38649981e-01]
- [1.84364534e-01]
- [1.30648081e-01]
- [2.82832153e-01]
- [2.02961318e-01]
- [1.23667979e-01]
- [1.18652264e-01]
- [1.33863834e-01]
- [1.34614449e-04]]</t>
+          <t>[[3.90948468e-02]
+ [6.78613065e-02]
+ [2.22567657e-01]
+ [3.25867991e-01]
+ [2.96893613e-01]
+ [2.68585142e-01]
+ [2.41158559e-01]
+ [2.14924931e-01]
+ [1.90328834e-01]
+ [1.74295277e-01]
+ [1.63785611e-01]
+ [1.54096958e-01]
+ [1.45521068e-01]
+ [1.40281425e-01]
+ [1.37636994e-01]
+ [1.36315312e-01]
+ [1.34994108e-01]
+ [1.33678253e-01]
+ [3.57795238e-01]
+ [3.20672252e-01]
+ [2.83501022e-01]
+ [2.97216421e-01]
+ [2.26494289e-01]
+ [1.56767452e-01]
+ [1.39797954e-01]
+ [1.41641368e-01]
+ [1.26918651e-01]
+ [9.25513793e-02]
+ [9.65521259e-02]
+ [8.38296266e-05]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14455,36 +14455,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.07700847]
- [0.0924673 ]
- [0.34864142]
- [0.37859281]
- [0.3286008 ]
- [0.27907877]
- [0.23015532]
- [0.18206821]
- [0.13528378]
- [0.06222758]
- [0.05384483]
- [0.0468426 ]
- [0.0414206 ]
- [0.0394277 ]
- [0.03866616]
- [0.03531566]
- [0.03483342]
- [0.03435044]
- [0.04374377]
- [0.03970319]
- [0.03571743]
- [0.12586943]
- [0.11668865]
- [0.10761232]
- [0.92228344]
- [0.90400586]
- [0.88709717]
- [1.        ]
- [0.99393724]
- [0.00488956]]</t>
+          <t>[[0.0711731 ]
+ [0.08466304]
+ [0.37012411]
+ [0.40731353]
+ [0.3527852 ]
+ [0.29870868]
+ [0.2451904 ]
+ [0.19242525]
+ [0.14078205]
+ [0.0593246 ]
+ [0.04879507]
+ [0.04009297]
+ [0.03355611]
+ [0.03065847]
+ [0.02950144]
+ [0.0257738 ]
+ [0.0252384 ]
+ [0.02470306]
+ [0.239474  ]
+ [0.22925224]
+ [0.21900527]
+ [0.40511146]
+ [0.38508213]
+ [0.36502326]
+ [0.30965885]
+ [0.3036874 ]
+ [0.30550544]
+ [0.30382115]
+ [0.30167202]
+ [0.00110717]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14503,36 +14503,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.46696766e-01]
- [4.05843459e-01]
- [5.85485533e-01]
- [6.31409029e-01]
- [6.05818073e-01]
- [5.80154000e-01]
- [5.54318408e-01]
- [5.28186721e-01]
- [5.01593207e-01]
- [4.94688930e-01]
- [4.94097838e-01]
- [4.93132274e-01]
- [4.93798410e-01]
- [4.96381716e-01]
- [4.99021521e-01]
- [5.01160720e-01]
- [4.95767800e-01]
- [4.90349094e-01]
- [4.88009711e-01]
- [4.33683410e-01]
- [3.80047976e-01]
- [6.45626474e-01]
- [5.11678826e-01]
- [3.80526119e-01]
- [9.93747351e-01]
- [8.40139423e-01]
- [6.55629626e-01]
- [5.60636528e-01]
- [9.03064598e-01]
- [4.14921745e-10]]</t>
+          <t>[[2.24885419e-01]
+ [3.71369869e-01]
+ [5.29157090e-01]
+ [5.73741758e-01]
+ [5.49740027e-01]
+ [5.25648261e-01]
+ [5.01364626e-01]
+ [4.76760299e-01]
+ [4.51663861e-01]
+ [4.38873492e-01]
+ [4.25865701e-01]
+ [4.12593111e-01]
+ [4.00304120e-01]
+ [3.89152737e-01]
+ [3.78027456e-01]
+ [3.72475457e-01]
+ [3.66930154e-01]
+ [3.61391589e-01]
+ [9.99999999e-01]
+ [9.01602915e-01]
+ [8.04058520e-01]
+ [8.86698417e-01]
+ [7.11393643e-01]
+ [5.38797031e-01]
+ [5.31231867e-01]
+ [6.30184847e-01]
+ [8.54290594e-01]
+ [8.86028899e-01]
+ [1.00000000e+00]
+ [5.88939552e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14621,26 +14621,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.29583003e+10 6.00709619e+12 2.29583003e+10 6.00709619e+12
-  1.57322018e+10 1.65832412e+11]
- [2.08833530e+10 4.35206587e+12 2.08833530e+10 4.35206587e+12
-  1.46122018e+10 1.65832412e+11]
- [1.88084056e+10 3.05101086e+12 1.88084056e+10 3.05101086e+12
-  1.34922018e+10 1.65832412e+11]
- [1.67334582e+10 2.05968424e+12 1.67334582e+10 2.05968424e+12
-  1.23722018e+10 1.65832412e+11]
- [1.46585109e+10 1.33383911e+12 1.46585109e+10 1.33383911e+12
-  1.12522018e+10 1.65832412e+11]
- [1.25835635e+10 8.29228541e+11 1.25835635e+10 8.29228541e+11
-  1.01322018e+10 1.65832412e+11]
- [1.05086161e+10 5.01605627e+11 1.05086161e+10 5.01605627e+11
-  9.01220182e+09 1.65832412e+11]
- [8.43366875e+09 3.06723454e+11 8.43366875e+09 3.06723454e+11
-  7.89220182e+09 1.65832412e+11]
- [6.35872138e+09 2.00335108e+11 6.35872138e+09 2.00335108e+11
-  6.77220182e+09 1.65832412e+11]
- [4.28377401e+09 1.38193676e+11 4.28377401e+09 1.38193676e+11
-  5.65220182e+09 1.65832412e+11]]</t>
+          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
+  1.61085445e+10 2.01211985e+11]
+ [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
+  1.49885445e+10 2.01211985e+11]
+ [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
+  1.38685445e+10 2.01211985e+11]
+ [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
+  1.27485445e+10 2.01211985e+11]
+ [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
+  1.16285445e+10 2.01211985e+11]
+ [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
+  1.05085445e+10 2.01211985e+11]
+ [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
+  9.38854449e+09 2.01211985e+11]
+ [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
+  8.26854449e+09 2.01211985e+11]
+ [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
+  7.14854449e+09 2.01211985e+11]
+ [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
+  6.02854449e+09 2.01211985e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14663,9 +14663,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[374.59069999 430.91788114 470.11441352 500.85548938 536.27787253
- 565.4094319  590.36279875 583.31505223 574.48967441 564.07935796
- 499.80471518 430.04376914 352.18249915]</t>
+          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
+ 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
+ 374.78657101 363.97090624 352.18249915]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14784,9 +14784,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[374.59069999 430.91788114 470.11441352 500.85548938 536.27787253
- 565.4094319  590.36279875 583.31505223 574.48967441 564.07935796
- 499.80471518 430.04376914 352.18249915]</t>
+          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
+ 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
+ 374.78657101 363.97090624 352.18249915]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14974,9 +14974,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-374.59069999 -430.91788114 -470.11441352 -500.85548938 -536.27787253
- -565.4094319  -590.36279875 -583.31505223 -574.48967441 -564.07935796
- -499.80471518 -430.04376914 -352.18249915]</t>
+          <t>[-433.45886933 -498.11098302 -543.35563483 -578.98977215 -620.2143425
+ -654.24896106 -683.49576931 -591.24559244 -493.58003057 -384.54058039
+ -374.78657101 -363.97090624 -352.18249915]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15020,7 +15020,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[160.96215286 321.51521967 863.22103483 698.80507012]</t>
+          <t>[496.54061531 645.91548152 492.67405488 319.69131412]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15039,7 +15039,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89421729 0.60353812]</t>
+          <t>[1.         1.         0.52550626 0.88368052]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15058,7 +15058,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89421729 0.60353812]</t>
+          <t>[1.         1.         0.52550626 0.88368052]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15077,7 +15077,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.50063618 0.35275999 0.935101  ]</t>
+          <t>[0.7687393 1.        1.       ]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15120,8 +15120,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.55777673 5.55777673 5.55777673 5.55777673 5.55777673 5.55777673
- 5.55777673 5.36180451 5.16583229 4.96986007 4.31307338 3.65628669
+          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 5.4375453  4.41593579 3.39432628 3.26271752 3.13110876
  2.9995    ]</t>
         </is>
       </c>
@@ -15373,8 +15373,8 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[20001.38789402 10044.67803393  3362.5180483   2379.56283728]</t>
+          <t>[8794.46311934 6763.80450929 5156.62483658 3342.40037537]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[305095.80585701 154172.41865223  46476.15656358  18836.97354829]</t>
+          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[305095.80585701 154172.41865223  46476.15656358  18836.97354829]</t>
+          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[7.31118634e+12 3.69452237e+12 1.11373488e+12 4.51401235e+11]</t>
+          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[7.31118634e+12 3.69452237e+12 1.11373488e+12 4.51401235e+11]</t>
+          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[5.79777077e+12 2.92975624e+12 8.83191760e+11 3.57961180e+11]</t>
+          <t>[3.47221214e+12 2.67296027e+12 1.18444997e+12 3.22550715e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15790,7 +15790,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[4.79304766e+11 2.40706399e+11 8.05779547e+10 5.70228334e+10]</t>
+          <t>[2.10746780e+11 1.62084939e+11 1.23571168e+11 8.00958633e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15898,10 +15898,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.41727104 0.15203488 0.15203488 0.        ]
- [0.         0.         0.83088776 0.30086578 0.30086578 0.        ]
- [0.         0.         2.48206846 0.94525519 0.94525519 0.        ]
- [0.         0.         3.50736693 1.76547148 1.76547148 0.        ]]</t>
+          <t>[[0.         0.         0.9490062  0.29503438 0.29503438 0.        ]
+ [0.         0.         1.23392094 0.38325372 0.38325372 0.        ]
+ [0.         0.         1.61850052 0.6596995  0.6596995  0.        ]
+ [0.         0.         2.49700786 1.57194017 1.57194017 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15924,10 +15924,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.6852973  0.6852973  0.         0.         0.         0.07601744]
- [1.36652278 1.36652278 0.         0.         0.         0.15043289]
- [4.08569404 4.08569404 0.         0.         0.         0.4726276 ]
- [5.77272622 5.77272622 0.         0.         0.         0.88273574]]</t>
+          <t>[[1.56155204 1.56155204 0.         0.         0.         0.14751719]
+ [2.03078785 2.03078785 0.         0.         0.         0.19162686]
+ [2.66315966 2.66315966 0.         0.         0.         0.32984975]
+ [4.10668094 4.10668094 0.         0.         0.         0.78597008]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[623.77478379]</t>
+          <t>[567.8359584]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3789395.45089411]</t>
+          <t>[2751771.78876713]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15996,8 +15996,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 10.91958123 10.52763679 10.13569235  9.28293345  7.96936007  6.65578669]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 11.89670012  9.8534811   7.81026208  6.6570438   6.39382628  6.13060876]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16020,8 +16020,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.07389092 0.07389092 0.07389092 0.03699247 0.03699247 0.03699247
- 0.01304946 0.01304946 0.01304946 0.01220257 0.01220257 0.01220257]</t>
+          <t>[0.02783779 0.02783779 0.02783779 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16068,18 +16068,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[38556217.05993927]
- [35291888.20975896]
- [32018261.52045869]
- [52711473.65775183]
- [42087693.65389505]
- [31449196.34435837]
- [71931791.0629743 ]
- [56309226.80288298]
- [37864033.83652304]
- [21900733.37977043]
- [-5040169.41456471]
- [ 2145799.26543083]]</t>
+          <t>[[75878155.66234948]
+ [68658175.40245782]
+ [61407550.86950822]
+ [65841832.55182985]
+ [51872384.20638243]
+ [37875793.69672301]
+ [35666347.31813475]
+ [39833292.77073361]
+ [43254309.93120526]
+ [30903824.29636569]
+ [ -383364.33235323]
+ [ 2982048.82443694]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16102,18 +16102,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 1756531.02032866]
- [ 1756934.82771327]
- [ 1757301.74745904]
- [ 3503119.60041565]
- [ 3504243.66854366]
- [ 3505151.75153228]
- [10101055.66178416]
- [10498549.90233765]
- [10928331.01794728]
- [12826477.20430848]
- [15094175.7258544 ]
- [18329767.50676918]]</t>
+          <t>[[ 3971190.08513464]
+ [ 3971871.04285925]
+ [ 3972490.25653934]
+ [ 5167298.8597204 ]
+ [ 5168543.12011546]
+ [ 5169548.54896211]
+ [ 5633275.23308302]
+ [ 6871398.47875284]
+ [ 8804137.32736109]
+ [10462128.89411173]
+ [10931872.88861705]
+ [11445106.10052328]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16136,18 +16136,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -4096.87791866]
- [ -4589.61218961]
- [ -4952.24750249]
- [-10612.18021488]
- [-11285.79873699]
- [-11850.65603066]
- [-34188.07281074]
- [-33691.65011806]
- [-33095.16349045]
- [-33001.75674717]
- [-28787.44609206]
- [-24402.21281635]]</t>
+          <t>[[-12691.56089973]
+ [-14217.98349064]
+ [-15341.37751144]
+ [-21352.99322267]
+ [-22708.39535927]
+ [-23844.95671795]
+ [-22700.14506038]
+ [-19212.37079603]
+ [-15529.76703918]
+ [-13470.93621515]
+ [-13147.38086344]
+ [-12796.65538503]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16200,18 +16200,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.19675385]
- [0.1802061 ]
- [0.16362233]
- [0.2699384 ]
- [0.21634152]
- [0.16296397]
- [0.37666627]
- [0.30108965]
- [0.21541471]
- [0.15875229]
- [0.13542788]
- [0.16187384]]</t>
+          <t>[[0.38760368]
+ [0.35104603]
+ [0.3143711 ]
+ [0.33806859]
+ [0.26783028]
+ [0.19804223]
+ [0.1881555 ]
+ [0.21152843]
+ [0.23334363]
+ [0.18226866]
+ [0.09633837]
+ [0.10198077]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16230,18 +16230,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.04372896]
- [0.03968703]
- [0.03570016]
- [0.12580896]
- [0.11662648]
- [0.10754905]
- [0.92210027]
- [0.90383642]
- [0.88694284]
- [0.99986745]
- [0.99385917]
- [0.99985743]]</t>
+          <t>[[0.23942983]
+ [0.22920228]
+ [0.21895141]
+ [0.40498308]
+ [0.38494699]
+ [0.36488328]
+ [0.30957499]
+ [0.3036279 ]
+ [0.30547146]
+ [0.30380483]
+ [0.30166338]
+ [0.30008841]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16260,18 +16260,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.63084303]
- [0.56832783]
- [0.50599323]
- [0.85544839]
- [0.69521534]
- [0.53599345]
- [1.3579901 ]
- [1.18350029]
- [0.97000804]
- [0.87645677]
- [0.66040311]
- [1.05283456]]</t>
+          <t>[[1.42798999]
+ [1.29979459]
+ [1.17166433]
+ [1.29953325]
+ [1.0666539 ]
+ [0.83471111]
+ [0.81389225]
+ [0.96729134]
+ [1.23868273]
+ [1.24110894]
+ [0.68795022]
+ [0.77928576]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.29602526]</t>
+          <t>[0.26554278]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.30038556]</t>
+          <t>[0.26868824]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.29602526 0.30038556 0.83750192 1.01633246 1.20299609 2.83763384]</t>
+          <t>[0.26554278 0.26868824 0.83204858 0.98876286 1.16343774 3.00522698]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16452,9 +16452,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.66113611    1.10751055   -2.93590799    3.60899967   -1.44173834]
- [  13.37938971   28.75413143 -110.0679734   140.06106787  -71.1266156 ]
- [ -63.06194364  178.01669756 -369.78399083  468.60441784 -212.77518093]]</t>
+          <t>[[   0.95685799    1.39654674   -4.29662564    4.38703524   -1.44381433]
+ [  63.73060468 -100.10667302   88.89231498    1.92392671  -53.44017336]
+ [ -82.77774245  279.00427666 -533.936672    574.76913675 -236.05899896]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16473,9 +16473,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.65427275    1.05735055   -2.77342113    3.40189028   -1.34009245]
- [   6.43534336   19.87890852  -69.98799953   89.03659777  -44.36285011]
- [ -61.6819305   170.92932657 -353.81461977  448.55758224 -202.99035854]]</t>
+          <t>[[   0.94049471    1.40815954   -4.27473963    4.32397912   -1.39789375]
+ [  23.31086162  -29.7470502    13.42001915   24.87385575  -30.85768632]
+ [ -79.26310196  265.50642366 -508.6605836   546.18063515 -222.76337325]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16494,7 +16494,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.50057193 -13.76035015  25.13013585 -19.44799969   5.57764207]
+          <t>[[  6.95186801 -22.89312622  35.06246842 -24.93498915   6.81377893]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.30038556 1.20299609 2.88439445]</t>
+          <t>[0.26868824 1.16343774 3.0763986 ]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16542,7 +16542,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.29602526 1.01633246 2.83763384]</t>
+          <t>[0.26554278 0.98876286 3.00522698]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.66776299 0.         0.        ]</t>
+          <t>[4.65186173 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16589,18 +16589,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00344105]
- [0.01289202]
- [0.02780345]
- [0.06249185]
- [0.11382345]
- [0.17860033]
- [0.22682643]
- [0.28448335]
- [0.35024448]
- [0.41816404]
- [0.49162278]
- [0.56785693]]</t>
+ [0.00592295]
+ [0.02192601]
+ [0.04708946]
+ [0.09972788]
+ [0.17069376]
+ [0.25646341]
+ [0.31415323]
+ [0.37769798]
+ [0.4497879 ]
+ [0.52643488]
+ [0.61021663]
+ [0.69655674]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.56785693]</t>
+          <t>[0.69655674]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16646,17 +16646,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-18675418.59634449]
- [-16302361.68283886]
- [-13928886.87053802]
- [-12221400.82878864]
- [-10513363.74559276]
- [ -8804864.98485241]
- [ -8444960.29096828]
- [ -8097853.64093313]
- [ -7763562.28083343]
- [ -7495934.79437705]
- [ -7266144.48060388]
+          <t>[[-15179644.57477847]
+ [-14132373.17195525]
+ [-13084618.49352921]
+ [-11930570.07020072]
+ [-10775879.22210644]
+ [ -9620648.19448792]
+ [ -8982189.62116224]
+ [ -8453418.30858828]
+ [ -8034420.2959698 ]
+ [ -7701192.56941366]
+ [ -7381134.66226718]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -16680,18 +16680,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428263.80594435]
- [2428854.56992425]
- [2429391.51090613]
- [2429643.42483438]
- [2430468.15727155]
- [2431134.84719227]
- [2428764.46214175]
- [2428892.8576484 ]
- [2428988.10123072]
- [2428867.21296221]
- [2428800.18099352]
- [2428683.7945209 ]]</t>
+          <t>[[2428182.36228258]
+ [2428619.74461094]
+ [2429017.59041094]
+ [2429687.11812573]
+ [2430301.68155796]
+ [2430798.64910754]
+ [2429705.94644639]
+ [2429549.89250651]
+ [2429386.09811265]
+ [2429248.32623385]
+ [2429314.34151656]
+ [2429297.86772874]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16714,18 +16714,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29099.19314387]
- [29107.08484484]
- [29114.33138732]
- [29117.8972565 ]
- [29129.42917623]
- [29139.0640577 ]
- [29106.50514688]
- [29108.61033527]
- [29110.34168779]
- [29108.97464723]
- [29108.5698208 ]
- [29107.75163546]]</t>
+          <t>[[29098.11184182]
+ [29103.95515054]
+ [29109.32475869]
+ [29118.44569902]
+ [29127.03800842]
+ [29134.21824715]
+ [29119.45947022]
+ [29117.59786569]
+ [29115.82660431]
+ [29114.63043016]
+ [29116.7202007 ]
+ [29117.87698774]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16748,18 +16748,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4309188.74150701]
- [-3955629.60340582]
- [-3601167.33299432]
- [-3092931.92683082]
- [-2582637.62154615]
- [-2071496.88956283]
- [-1764490.07943156]
- [-1456466.43952477]
- [-1147605.55214524]
- [ -858661.66238062]
- [ -568981.7199051 ]
- [ -278501.79322285]]</t>
+          <t>[[-4328375.06387457]
+ [-3973935.82235014]
+ [-3617972.07032587]
+ [-3106978.07552878]
+ [-2593734.6006956 ]
+ [-2079300.20220311]
+ [-1770546.7419616 ]
+ [-1461474.7694844 ]
+ [-1151636.22193945]
+ [ -861403.80308585]
+ [ -570219.36170081]
+ [ -278501.98193607]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16782,18 +16782,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.22580500e+08]
- [ 2.93095673e+08]
- [ 2.63544262e+08]
- [ 2.21192932e+08]
- [ 1.78696438e+08]
- [ 1.36146271e+08]
- [ 1.10599610e+08]
- [ 8.49913388e+07]
- [ 5.93374570e+07]
- [ 3.53635526e+07]
- [ 1.13663274e+07]
- [-1.26341967e+07]]</t>
+          <t>[[ 3.23984864e+08]
+ [ 2.94433637e+08]
+ [ 2.64769723e+08]
+ [ 2.22212632e+08]
+ [ 1.79496896e+08]
+ [ 1.36703589e+08]
+ [ 1.11026741e+08]
+ [ 8.53346563e+07]
+ [ 5.96039492e+07]
+ [ 3.55415290e+07]
+ [ 1.14497012e+07]
+ [-1.26341973e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16816,18 +16816,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299595.59120013]
- [1299580.42722498]
- [1299565.25995561]
- [1299638.33937511]
- [1299616.60650643]
- [1299594.86735128]
- [1299783.81729397]
- [1299782.16249517]
- [1299780.88513909]
- [1299819.10294338]
- [1299863.83528131]
- [1299928.69557204]]</t>
+          <t>[[1299696.94375691]
+ [1299681.72725792]
+ [1299666.50156843]
+ [1299708.38136491]
+ [1299686.56533758]
+ [1299664.7378989 ]
+ [1299658.54375541]
+ [1299683.75103483]
+ [1299725.6161243 ]
+ [1299756.19807727]
+ [1299755.63983115]
+ [1299755.55903062]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16850,9 +16850,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809693]
+          <t>[[  2427925.55809721]
  [    29094.73368413]
- [-21047904.72611746]]</t>
+ [-16226259.31013004]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16875,8 +16875,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.66134741e+06]
- [ 3.51960588e+08]
+          <t>[[-4.68084523e+06]
+ [ 3.53388791e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2384372.11979593]</t>
+          <t>[1892375.74649594]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.68288037e+00 -3.96336332e-02  9.53066607e+01]</t>
+          <t>[-3.38039904e+00 -4.99379313e-02  1.15553981e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.08820702e+10 3.07445832e+10 2.99453078e+08 7.86163621e+02
+          <t>[3.10747832e+10 3.09372962e+10 2.90371228e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.68102136]</t>
+          <t>[2.67367731]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19587,8 +19587,8 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.0853113  0.05280258 0.01634223 0.00804929 0.01475924]]</t>
+          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_output.xlsx
@@ -914,7 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.08109086 0.090103   0.08233426 0.0790482  0.07774489
+  0.07706251]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -937,8 +938,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[12.91830963]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[12.91830963]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.67367731]</t>
+          <t>[2.97392115]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
+          <t>[[0.04  0.04  0.015 0.015 0.015]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
+          <t>[12.         12.         12.          9.46434038  5.999     ]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          27567.58323521
-  28898.60721297  33033.98623873  40422.94053529  51829.86773143
-  68473.56384445  92230.32452283 107649.77263452 126112.4806614
- 148353.48280055      0.              0.              0.
+          <t>[     0.              0.              0.          23803.27314111
+  24954.37407775  28529.59616942  34924.2494355   44814.08301714
+  59257.58964838  79884.65416948  93272.62746048 109297.92285244
+ 128591.36920212      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4827,10 +4827,8 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4971,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          27567.58323521
-  28898.60721297  33033.98623873  40422.94053529  51829.86773143
-  68473.56384445  92230.32452283 107649.77263452 126112.4806614
- 148353.48280055      0.              0.              0.
+          <t>[     0.              0.              0.          23803.27314111
+  24954.37407775  28529.59616942  34924.2494355   44814.08301714
+  59257.58964838  79884.65416948  93272.62746048 109297.92285244
+ 128591.36920212      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5117,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -27567.58323521
-  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
-  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
- -148353.48280055       0.               0.               0.
+          <t>[      0.               0.               0.          -23803.27314111
+  -24954.37407775  -28529.59616942  -34924.2494355   -44814.08301714
+  -59257.58964838  -79884.65416948  -93272.62746048 -109297.92285244
+ -128591.36920212       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5171,8 +5169,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5195,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.07904543 0.08559693 0.08621863 0.08069123 0.07839655 0.0774037 ]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5261,8 +5258,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5285,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.07904543 0.08559693 0.08621863 0.08069123 0.07839655 0.0774037 ]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5548,8 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.07904543 0.07904543 0.07904543 0.08559693 0.08559693 0.08559693
+ 0.08621863 0.08621863 0.08621863 0.08069123 0.08069123 0.08069123
+ 0.07839655 0.07839655 0.07839655 0.0774037  0.0774037  0.0774037 ]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5713,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2462929.0507968]</t>
+          <t>[2432867.68368616]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5736,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[5983171.69572365]</t>
+          <t>[5878806.24911114]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5759,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[47.5]</t>
+          <t>[47.58292765]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5782,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
+          <t>[7.32473977e+09 7.32473977e+09 8.63930576e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[925300.85637238]</t>
+          <t>[1119618.63576587]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5829,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[2751771.78876713]</t>
+          <t>[3171036.81796321]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5876,26 +5873,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
-  1.61085445e+10 2.01211985e+11]
- [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
-  1.49885445e+10 2.01211985e+11]
- [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
-  1.38685445e+10 2.01211985e+11]
- [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
-  1.27485445e+10 2.01211985e+11]
- [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
-  1.16285445e+10 2.01211985e+11]
- [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
-  1.05085445e+10 2.01211985e+11]
- [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
-  9.38854449e+09 2.01211985e+11]
- [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
-  8.26854449e+09 2.01211985e+11]
- [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
-  7.14854449e+09 2.01211985e+11]
- [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
-  6.02854449e+09 2.01211985e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5918,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089]</t>
+          <t>[3.16753515 3.16753515 3.16753515 3.42818408 3.42818408 3.42818408
+ 3.45290331 3.45290331 3.45290331 3.23303998 3.23303998 3.23303998
+ 3.14170392 3.14170392 3.14170392 3.10217438 3.10217438 3.10217438]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5943,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5968,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5993,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6018,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6043,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889]</t>
+          <t>[112.5388861  112.5388861  112.5388861  121.66653357 121.66653357
+ 121.66653357 122.53112533 122.53112533 122.53112533 114.83469679
+ 114.83469679 114.83469679 111.6332031  111.6332031  111.6332031
+ 110.2468521  110.2468521  110.2468521 ]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6241,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
- 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.10675423 1.10675423 1.10675423
+ 0.58300533 0.54038718 0.49776903 0.44733806 0.38909428 0.3308505 ]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6265,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6289,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6313,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6337,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6361,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
- 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
+          <t>[57.50850094 57.50850094 57.50850094 39.66095627 39.66095627 39.66095627
+ 19.48536288 15.5169425  12.12759829  8.80235716  5.79237107  3.56113019]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6456,8 +6453,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.15478013 10.30956025  9.46434038  8.30922692  7.15411346
   5.999     ]</t>
         </is>
       </c>
@@ -6481,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
- 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
+          <t>[0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015  0.015  0.015  0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6587,9 +6584,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809721]
+          <t>[[  2427925.55809669]
  [    29094.73368413]
- [-16226259.31013004]]</t>
+ [-18132081.75685217]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6612,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.68084523e+06]
- [ 3.53388791e+08]
+          <t>[[-4.66737516e+06]
+ [ 3.52475380e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6637,8 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[2086034.04636477 2086034.04636477 4172068.09272954       0.
-       0.               0.        ]</t>
+          <t>[1800000. 1800000. 3600000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -6730,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[1892375.74649594]</t>
+          <t>[2086693.52588943]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6753,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-3.38039904e+00 -4.99379313e-02  1.15553981e+02]</t>
+          <t>[-3.06560838e+00 -4.52875944e-02  1.06882377e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.10747832e+10 3.09372962e+10 2.90371228e+08 7.86163621e+02
+          <t>[3.10750852e+10 3.09375981e+10 2.94783991e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6885,16 +6881,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -27567.58323521]
- [ -28898.60721297]
- [ -33033.98623873]
- [ -40422.94053529]
- [ -51829.86773143]
- [ -68473.56384445]
- [ -92230.32452283]
- [-107649.77263452]
- [-126112.4806614 ]
- [-148353.48280055]
+ [ -23803.27314111]
+ [ -24954.37407775]
+ [ -28529.59616942]
+ [ -34924.2494355 ]
+ [ -44814.08301714]
+ [ -59257.58964838]
+ [ -79884.65416948]
+ [ -93272.62746048]
+ [-109297.92285244]
+ [-128591.36920212]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6993,18 +6989,18 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-433.45886933]
- [-498.11098302]
- [-543.35563483]
- [-578.98977215]
- [-620.2143425 ]
- [-654.24896106]
- [-683.49576931]
- [-591.24559244]
- [-493.58003057]
- [-384.54058039]
- [-374.78657101]
- [-363.97090624]
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-605.89650176]
+ [-573.30732989]
+ [-538.04612995]
+ [-481.70542688]
+ [-420.35937827]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -7028,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-42228516.43436101]
- [-39686169.71739706]
- [-37007363.46496855]
- [-35126127.22471119]
- [-33226851.85698009]
- [-31289546.20698587]
- [-29290214.11882558]
- [-27198314.99528399]
- [-24973094.35257511]
- [-23795843.29699851]
- [-22562686.68441746]
- [-21262368.93686927]
- [-20170136.78553253]
- [-19322687.87987806]
- [-18475238.97422328]
- [-18051514.52139574]
- [-17627790.0685682 ]
- [-17204065.61574036]]</t>
+          <t>[[-43499164.0210854 ]
+ [-41076336.35285855]
+ [-38535682.4856563 ]
+ [-36626651.26111335]
+ [-34702023.17976443]
+ [-32744494.51139108]
+ [-30720621.95337302]
+ [-28616449.36214013]
+ [-26396543.86476718]
+ [-25286523.66293101]
+ [-24127971.57351482]
+ [-22911143.57322212]
+ [-21897944.67174011]
+ [-21096921.52305143]
+ [-20295898.37436292]
+ [-19900426.11070383]
+ [-19504953.84704415]
+ [-19109481.58338446]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7068,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-4284114.30169103]
- [-9422801.84148106]
- [-8909692.12284653]
- [ 2428470.72349775]
- [ 2428695.02931387]
- [ 2428925.42595564]
- [ 2429170.41005958]
- [ 2429441.3073732 ]
- [ 2429754.21826773]
- [ 2428982.71556465]
- [ 2429089.76121815]
- [ 2429211.57829398]
- [ 2429147.74636079]
- [ 2428843.9406437 ]
- [ 2428880.33601435]
- [ 2428416.32902703]
- [ 2428425.10925293]
- [ 2428433.78331507]]</t>
+          <t>[[ -4346661.46078604]
+ [-10032595.40499371]
+ [ -9760750.09622444]
+ [  2428570.67889465]
+ [  2428826.44704818]
+ [  2429087.07084319]
+ [  2429368.97373374]
+ [  2429666.92676256]
+ [  2430004.96317313]
+ [  2429061.79166109]
+ [  2429175.35856616]
+ [  2429303.6330797 ]
+ [  2429220.7535884 ]
+ [  2428924.70069883]
+ [  2428966.94858585]
+ [  2428455.14707926]
+ [  2428465.33602598]
+ [  2428475.4012266 ]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7108,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -55245.56616472]
- [-121751.26421453]
- [-115990.67619437]
- [  29101.74168551]
- [  29104.64083895]
- [  29107.62549496]
- [  29110.80605607]
- [  29114.33010226]
- [  29118.40787364]
- [  29108.43395523]
- [  29109.83184014]
- [  29111.42353679]
- [  29110.6065964 ]
- [  29106.66972929]
- [  29107.15198938]
- [  29101.12048754]
- [  29101.23722852]
- [  29101.35269533]]</t>
+          <t>[[ -56034.38454239]
+ [-129566.47367053]
+ [-126929.70547854]
+ [  29103.02790097]
+ [  29106.33314142]
+ [  29109.70890187]
+ [  29113.36790452]
+ [  29117.24387638]
+ [  29121.64939945]
+ [  29109.45564393]
+ [  29110.9390025 ]
+ [  29112.6154857 ]
+ [  29111.55253398]
+ [  29107.71819953]
+ [  29108.27786278]
+ [  29101.62549737]
+ [  29101.76093227]
+ [  29101.8948814 ]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7148,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -832645.39629137]
- [-3014585.36101957]
- [-5395732.71689356]
- [-6159499.96703668]
- [-5963088.84808255]
- [-5766167.25666821]
- [-5568832.79859186]
- [-5371184.55654665]
- [-5173325.53478697]
- [-5074395.79772199]
- [-4975461.25321269]
- [-4876536.84643006]
- [-4777640.25518451]
- [-4678763.82093888]
- [-4579893.7070414 ]
- [-4530474.10972424]
- [-4481059.33981379]
- [-4431650.23621183]]</t>
+          <t>[[ -745368.36981875]
+ [-2951364.72321   ]
+ [-5451843.87666545]
+ [-6165863.67470458]
+ [-5968952.25203929]
+ [-5771438.88565024]
+ [-5573437.959199  ]
+ [-5375065.39153075]
+ [-5176436.77942421]
+ [-5077109.50513841]
+ [-4977758.07875364]
+ [-4878398.98339708]
+ [-4779049.57904011]
+ [-4679700.64844552]
+ [-4580340.07078611]
+ [-4530669.73837004]
+ [-4480999.79610847]
+ [-4431331.25647556]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7188,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[6.47757070e+07]
- [2.34186136e+08]
- [4.18293401e+08]
- [4.76505307e+08]
- [4.60129143e+08]
- [4.43713655e+08]
- [4.27266502e+08]
- [4.10795430e+08]
- [3.94308466e+08]
- [3.86065123e+08]
- [3.77821513e+08]
- [3.69578792e+08]
- [3.61338321e+08]
- [3.53099508e+08]
- [3.44861290e+08]
- [3.40743410e+08]
- [3.36625928e+08]
- [3.32508908e+08]]</t>
+          <t>[[5.79960160e+07]
+ [2.29319948e+08]
+ [4.22729893e+08]
+ [4.77087812e+08]
+ [4.60672794e+08]
+ [4.44211396e+08]
+ [4.27712592e+08]
+ [4.11185447e+08]
+ [3.94638975e+08]
+ [3.86364918e+08]
+ [3.78089131e+08]
+ [3.69812887e+08]
+ [3.61537526e+08]
+ [3.53262343e+08]
+ [3.44986406e+08]
+ [3.40849258e+08]
+ [3.36712175e+08]
+ [3.32575237e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7228,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 214322.06831683]
- [ 468332.56474577]
- [ 809072.76854084]
- [1299643.54972834]
- [1299634.27249288]
- [1299624.9064326 ]
- [1299615.35296939]
- [1299605.49378159]
- [1299595.17828359]
- [1299584.20553502]
- [1299578.40048683]
- [1299572.31982286]
- [1299565.90805065]
- [1299560.52238228]
- [1299556.34374209]
- [1299552.16512876]
- [1299550.07583216]
- [1299547.9865423 ]]</t>
+          <t>[[ 216276.28740691]
+ [ 471640.48621241]
+ [ 812248.27046914]
+ [1299645.29968115]
+ [1299636.17202941]
+ [1299626.96993421]
+ [1299616.48989165]
+ [1299606.88285394]
+ [1299596.8947939 ]
+ [1299594.87834154]
+ [1299589.25107607]
+ [1299583.37782939]
+ [1299580.58584396]
+ [1299575.30020278]
+ [1299571.1214674 ]
+ [1299568.29190461]
+ [1299566.20255613]
+ [1299564.11321435]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7297,11 +7293,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.15478013 10.30956025  9.46434038  8.30922692  7.15411346
   5.999     ]</t>
         </is>
       </c>
@@ -7325,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
- 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
+          <t>[0.07904543 0.07904543 0.07904543 0.08559693 0.08559693 0.08559693
+ 0.08621863 0.08621863 0.08621863 0.08069123 0.08069123 0.08069123
+ 0.07839655 0.07839655 0.07839655 0.0774037  0.0774037  0.0774037
+ 0.04       0.04       0.04       0.0275     0.0275     0.0275
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7477,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
- 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
+          <t>[3.16753515 3.16753515 3.16753515 3.42818408 3.42818408 3.42818408
+ 3.45290331 3.45290331 3.45290331 3.23303998 3.23303998 3.23303998
+ 3.14170392 3.14170392 3.14170392 3.10217438 3.10217438 3.10217438
+ 1.60814358 1.60814358 1.60814358 1.10675423 1.10675423 1.10675423
+ 0.58300533 0.54038718 0.49776903 0.44733806 0.38909428 0.3308505 ]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7504,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665
+ 0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7531,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665
+ 0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7558,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605
+ 28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7585,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605
+ 28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7612,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
-  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
-  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
+          <t>[112.5388861  112.5388861  112.5388861  121.66653357 121.66653357
+ 121.66653357 122.53112533 122.53112533 122.53112533 114.83469679
+ 114.83469679 114.83469679 111.6332031  111.6332031  111.6332031
+ 110.2468521  110.2468521  110.2468521   57.50850094  57.50850094
+  57.50850094  39.66095627  39.66095627  39.66095627  19.48536288
+  15.5169425   12.12759829   8.80235716   5.79237107   3.56113019]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7640,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-4.22285164e+07]
- [-3.96861697e+07]
- [-3.70073635e+07]
- [-3.51261272e+07]
- [-3.32268519e+07]
- [-3.12895462e+07]
- [-2.92902141e+07]
- [-2.71983150e+07]
- [-2.49730944e+07]
- [-2.37958433e+07]
- [-2.25626867e+07]
- [-2.12623689e+07]
- [-2.01701368e+07]
- [-1.93226879e+07]
- [-1.84752390e+07]
- [-1.80515145e+07]
- [-1.76277901e+07]
- [-1.72040656e+07]
- [-1.51797942e+07]
- [-1.41331795e+07]
- [-1.30859081e+07]
- [-1.19325158e+07]
- [-1.07784673e+07]
- [-9.62377649e+06]
- [-8.98499523e+06]
- [-8.45525123e+06]
- [-8.03519454e+06]
- [-7.70139895e+06]
- [-7.38124271e+06]
- [ 1.90921128e-08]]</t>
+          <t>[[-4.34991640e+07]
+ [-4.10763364e+07]
+ [-3.85356825e+07]
+ [-3.66266513e+07]
+ [-3.47020232e+07]
+ [-3.27444945e+07]
+ [-3.07206220e+07]
+ [-2.86164494e+07]
+ [-2.63965439e+07]
+ [-2.52865237e+07]
+ [-2.41279716e+07]
+ [-2.29111436e+07]
+ [-2.18979447e+07]
+ [-2.10969215e+07]
+ [-2.02958984e+07]
+ [-1.99004261e+07]
+ [-1.95049538e+07]
+ [-1.91094816e+07]
+ [-1.66415920e+07]
+ [-1.51515629e+07]
+ [-1.36609220e+07]
+ [-1.21921462e+07]
+ [-1.07227622e+07]
+ [-9.25278372e+06]
+ [-8.78500491e+06]
+ [-8.35096991e+06]
+ [-7.95098389e+06]
+ [-7.61523940e+06]
+ [-7.32295530e+06]
+ [-1.04482751e-08]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7692,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.28411430e+06]
- [-9.42280184e+06]
- [-8.90969212e+06]
- [ 2.42847072e+06]
- [ 2.42869503e+06]
- [ 2.42892543e+06]
- [ 2.42917041e+06]
- [ 2.42944131e+06]
- [ 2.42975422e+06]
- [ 2.42898272e+06]
- [ 2.42908976e+06]
- [ 2.42921158e+06]
- [ 2.42914775e+06]
- [ 2.42884394e+06]
- [ 2.42888034e+06]
- [ 2.42841633e+06]
- [ 2.42842511e+06]
- [ 2.42843378e+06]
- [ 2.42942048e+06]
- [ 2.42983395e+06]
- [ 2.43020315e+06]
- [ 2.43094535e+06]
- [ 2.43149771e+06]
- [ 2.43193162e+06]
- [ 2.43030221e+06]
- [ 2.43001550e+06]
- [ 2.42970787e+06]
- [ 2.42943875e+06]
- [ 2.42941409e+06]
- [ 1.39938100e+03]]</t>
+          <t>[[-4.34666146e+06]
+ [-1.00325954e+07]
+ [-9.76075010e+06]
+ [ 2.42857068e+06]
+ [ 2.42882645e+06]
+ [ 2.42908707e+06]
+ [ 2.42936897e+06]
+ [ 2.42966693e+06]
+ [ 2.43000496e+06]
+ [ 2.42906179e+06]
+ [ 2.42917536e+06]
+ [ 2.42930363e+06]
+ [ 2.42922075e+06]
+ [ 2.42892470e+06]
+ [ 2.42896695e+06]
+ [ 2.42845515e+06]
+ [ 2.42846534e+06]
+ [ 2.42847540e+06]
+ [ 2.43027510e+06]
+ [ 2.43075380e+06]
+ [ 2.43118140e+06]
+ [ 2.43170433e+06]
+ [ 2.43234265e+06]
+ [ 2.43284367e+06]
+ [ 2.42963073e+06]
+ [ 2.42962192e+06]
+ [ 2.42958247e+06]
+ [ 2.42937558e+06]
+ [ 2.42921071e+06]
+ [ 1.07102497e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7744,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-5.52455662e+04]
- [-1.21751264e+05]
- [-1.15990676e+05]
- [ 2.91017417e+04]
- [ 2.91046408e+04]
- [ 2.91076255e+04]
- [ 2.91108061e+04]
- [ 2.91143301e+04]
- [ 2.91184079e+04]
- [ 2.91084340e+04]
- [ 2.91098318e+04]
- [ 2.91114235e+04]
- [ 2.91106066e+04]
- [ 2.91066697e+04]
- [ 2.91071520e+04]
- [ 2.91011205e+04]
- [ 2.91012372e+04]
- [ 2.91013527e+04]
- [ 2.91142640e+04]
- [ 2.91198265e+04]
- [ 2.91248537e+04]
- [ 2.91349780e+04]
- [ 2.91428223e+04]
- [ 2.91492435e+04]
- [ 2.91274055e+04]
- [ 2.91238445e+04]
- [ 2.91202106e+04]
- [ 2.91173266e+04]
- [ 2.91182964e+04]
- [ 2.29909465e+01]]</t>
+          <t>[[-5.60343845e+04]
+ [-1.29566474e+05]
+ [-1.26929705e+05]
+ [ 2.91030279e+04]
+ [ 2.91063331e+04]
+ [ 2.91097089e+04]
+ [ 2.91133679e+04]
+ [ 2.91172439e+04]
+ [ 2.91216494e+04]
+ [ 2.91094556e+04]
+ [ 2.91109390e+04]
+ [ 2.91126155e+04]
+ [ 2.91115525e+04]
+ [ 2.91077182e+04]
+ [ 2.91082779e+04]
+ [ 2.91016255e+04]
+ [ 2.91017609e+04]
+ [ 2.91018949e+04]
+ [ 2.91254130e+04]
+ [ 2.91318517e+04]
+ [ 2.91376724e+04]
+ [ 2.91449311e+04]
+ [ 2.91539938e+04]
+ [ 2.91614066e+04]
+ [ 2.91181251e+04]
+ [ 2.91183748e+04]
+ [ 2.91183045e+04]
+ [ 2.91159393e+04]
+ [ 2.91143418e+04]
+ [ 1.68603614e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7796,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-8.32645396e+05]
- [-3.01458536e+06]
- [-5.39573272e+06]
- [-6.15949997e+06]
- [-5.96308885e+06]
- [-5.76616726e+06]
- [-5.56883280e+06]
- [-5.37118456e+06]
- [-5.17332553e+06]
- [-5.07439580e+06]
- [-4.97546125e+06]
- [-4.87653685e+06]
- [-4.77764026e+06]
- [-4.67876382e+06]
- [-4.57989371e+06]
- [-4.53047411e+06]
- [-4.48105934e+06]
- [-4.43165024e+06]
- [-4.07310870e+06]
- [-3.71310941e+06]
- [-3.35208347e+06]
- [-2.83461351e+06]
- [-2.31573256e+06]
- [-1.79645175e+06]
- [-1.48522083e+06]
- [-1.17396942e+06]
- [-8.62325549e+05]
- [-5.70859693e+05]
- [-2.78945854e+05]
- [-6.52944062e-04]]</t>
+          <t>[[-7.45368370e+05]
+ [-2.95136472e+06]
+ [-5.45184388e+06]
+ [-6.16586367e+06]
+ [-5.96895225e+06]
+ [-5.77143889e+06]
+ [-5.57343796e+06]
+ [-5.37506539e+06]
+ [-5.17643678e+06]
+ [-5.07710951e+06]
+ [-4.97775808e+06]
+ [-4.87839898e+06]
+ [-4.77904958e+06]
+ [-4.67970065e+06]
+ [-4.58034007e+06]
+ [-4.53066974e+06]
+ [-4.48099980e+06]
+ [-4.43133126e+06]
+ [-4.07109300e+06]
+ [-3.70987171e+06]
+ [-3.34812214e+06]
+ [-2.83029873e+06]
+ [-2.31160775e+06]
+ [-1.79310177e+06]
+ [-1.48248112e+06]
+ [-1.17154304e+06]
+ [-8.60323748e+05]
+ [-5.69658169e+05]
+ [-2.78826968e+05]
+ [-4.20161952e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7848,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 6.47757070e+07]
- [ 2.34186136e+08]
- [ 4.18293401e+08]
- [ 4.76505307e+08]
- [ 4.60129143e+08]
- [ 4.43713655e+08]
- [ 4.27266502e+08]
- [ 4.10795430e+08]
- [ 3.94308466e+08]
- [ 3.86065123e+08]
- [ 3.77821513e+08]
- [ 3.69578792e+08]
- [ 3.61338321e+08]
- [ 3.53099508e+08]
- [ 3.44861290e+08]
- [ 3.40743410e+08]
- [ 3.36625928e+08]
- [ 3.32508908e+08]
- [ 3.02639587e+08]
- [ 2.72663005e+08]
- [ 2.42612620e+08]
- [ 1.99562665e+08]
- [ 1.56419778e+08]
- [ 1.13261053e+08]
- [ 8.73983075e+07]
- [ 6.15437297e+07]
- [ 3.56804327e+07]
- [ 1.15308167e+07]
- [-1.26071736e+07]
- [ 3.97411880e-02]]</t>
+          <t>[[ 5.79960160e+07]
+ [ 2.29319948e+08]
+ [ 4.22729893e+08]
+ [ 4.77087812e+08]
+ [ 4.60672794e+08]
+ [ 4.44211396e+08]
+ [ 4.27712592e+08]
+ [ 4.11185447e+08]
+ [ 3.94638975e+08]
+ [ 3.86364918e+08]
+ [ 3.78089131e+08]
+ [ 3.69812887e+08]
+ [ 3.61537526e+08]
+ [ 3.53262343e+08]
+ [ 3.44986406e+08]
+ [ 3.40849258e+08]
+ [ 3.36712175e+08]
+ [ 3.32575237e+08]
+ [ 3.02575682e+08]
+ [ 2.72504732e+08]
+ [ 2.42397436e+08]
+ [ 1.99317063e+08]
+ [ 1.56183968e+08]
+ [ 1.13077619e+08]
+ [ 8.72577995e+07]
+ [ 6.14260982e+07]
+ [ 3.55890772e+07]
+ [ 1.14794524e+07]
+ [-1.26135212e+07]
+ [ 2.66913852e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7900,35 +7896,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 214322.06831683]
- [ 468332.56474577]
- [ 809072.76854084]
- [1299643.54972834]
- [1299634.27249288]
- [1299624.9064326 ]
- [1299615.35296939]
- [1299605.49378159]
- [1299595.17828359]
- [1299584.20553502]
- [1299578.40048683]
- [1299572.31982286]
- [1299565.90805065]
- [1299560.52238228]
- [1299556.34374209]
- [1299552.16512876]
- [1299550.07583216]
- [1299547.9865423 ]
- [1299696.90265974]
- [1299681.72943394]
- [1299666.5132912 ]
- [1299708.40574408]
- [1299686.60211815]
- [1299664.78682196]
- [1299658.60797545]
- [1299683.82060062]
- [1299725.67349568]
- [1299756.2265236 ]
- [1299755.64772689]
+          <t>[[ 216276.28740691]
+ [ 471640.48621241]
+ [ 812248.27046914]
+ [1299645.29968115]
+ [1299636.17202941]
+ [1299626.96993421]
+ [1299616.48989165]
+ [1299606.88285394]
+ [1299596.8947939 ]
+ [1299594.87834154]
+ [1299589.25107607]
+ [1299583.37782939]
+ [1299580.58584396]
+ [1299575.30020278]
+ [1299571.1214674 ]
+ [1299568.29190461]
+ [1299566.20255613]
+ [1299564.11321435]
+ [1299645.82925918]
+ [1299630.67029381]
+ [1299615.48342419]
+ [1299663.36946531]
+ [1299641.61630603]
+ [1299619.85486746]
+ [1299721.19572325]
+ [1299727.52405743]
+ [1299736.04744706]
+ [1299752.39527296]
+ [1299781.86764714]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8074,7 +8070,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[12.91830963]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8626,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[2751771.78876713]</t>
+          <t>[3171036.81796321]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8649,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[925300.85637238]</t>
+          <t>[1119618.63576587]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8672,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[3696771.78876713]</t>
+          <t>[4116036.81796321]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8695,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[246.45145258]</t>
+          <t>[274.40245453]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8718,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[925300.85637238]</t>
+          <t>[1119618.63576587]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8787,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[2751771.78876713]</t>
+          <t>[3171036.81796321]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8810,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[2751771.78876713]</t>
+          <t>[3171036.81796321]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8833,9 +8829,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
- 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
- 374.78657101 363.97090624 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 605.89650176 573.30732989 538.04612995
+ 481.70542688 420.35937827 352.18249915]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9050,8 +9046,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.15478013 10.30956025  9.46434038  8.30922692  7.15411346
   5.999     ]</t>
         </is>
       </c>
@@ -9146,9 +9142,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
- 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
- 374.78657101 363.97090624 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 605.89650176 573.30732989 538.04612995
+ 481.70542688 420.35937827 352.18249915]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9288,9 +9284,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-433.45886933 -498.11098302 -543.35563483 -578.98977215 -620.2143425
- -654.24896106 -683.49576931 -591.24559244 -493.58003057 -384.54058039
- -374.78657101 -363.97090624 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -605.89650176 -573.30732989 -538.04612995
+ -481.70542688 -420.35937827 -352.18249915]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9338,7 +9334,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
+          <t>[12.         12.         12.          9.46434038  5.999     ]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9361,7 +9357,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.02601662 0.02       0.02       0.02      ]</t>
+          <t>[0.04   0.0275 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9426,7 +9422,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
+          <t>[12.         12.         12.          9.46434038  5.999     ]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9449,7 +9445,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.02601662 0.02       0.02       0.02      ]</t>
+          <t>[0.04   0.0275 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9685,8 +9681,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
- 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
+          <t>[0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015  0.015  0.015  0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9869,8 +9865,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
- 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.10675423 1.10675423 1.10675423
+ 0.58300533 0.54038718 0.49776903 0.44733806 0.38909428 0.3308505 ]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9893,8 +9889,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9917,8 +9913,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9941,8 +9937,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9965,8 +9961,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9989,8 +9985,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
- 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
+          <t>[57.50850094 57.50850094 57.50850094 39.66095627 39.66095627 39.66095627
+ 19.48536288 15.5169425  12.12759829  8.80235716  5.79237107  3.56113019]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10084,18 +10080,18 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-15179644.57477847]
- [-14132373.17195525]
- [-13084618.49352921]
- [-11930570.07020072]
- [-10775879.22210644]
- [ -9620648.19448792]
- [ -8982189.62116224]
- [ -8453418.30858828]
- [ -8034420.2959698 ]
- [ -7701192.56941366]
- [ -7381134.66226718]
- [ -7074256.27587359]]</t>
+          <t>[[-16642052.68077287]
+ [-15151411.71154579]
+ [-13660321.66061708]
+ [-12190937.65519989]
+ [-10720959.21378973]
+ [ -9250481.88045562]
+ [ -8782717.86353992]
+ [ -8349002.79817917]
+ [ -7949364.28700668]
+ [ -7614057.67561206]
+ [ -7322336.14528004]
+ [ -7074256.2758736 ]]</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -10118,18 +10114,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428182.36228258]
- [2428619.74461094]
- [2429017.59041094]
- [2429687.11812573]
- [2430301.68155796]
- [2430798.64910754]
- [2429705.94644639]
- [2429549.89250651]
- [2429386.09811265]
- [2429248.32623385]
- [2429314.34151656]
- [2429297.86772874]]</t>
+          <t>[[2428218.63183984]
+ [2428724.29664094]
+ [2429184.01839837]
+ [2429787.67640231]
+ [2430496.35184009]
+ [2431069.1484264 ]
+ [2429091.91307533]
+ [2429151.14334651]
+ [2429184.17194882]
+ [2429079.60569896]
+ [2429000.40645684]
+ [2428868.62871887]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10152,18 +10148,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29098.11184182]
- [29103.95515054]
- [29109.32475869]
- [29118.44569902]
- [29127.03800842]
- [29134.21824715]
- [29119.45947022]
- [29117.59786569]
- [29115.82660431]
- [29114.63043016]
- [29116.7202007 ]
- [29117.87698774]]</t>
+          <t>[[29098.59255663]
+ [29105.34612895]
+ [29111.54908376]
+ [29119.806295  ]
+ [29129.7120228 ]
+ [29137.98640246]
+ [29110.98327176]
+ [29112.09724594]
+ [29112.94707323]
+ [29111.90338574]
+ [29111.3965318 ]
+ [29110.42707744]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10186,18 +10182,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4328375.06387457]
- [-3973935.82235014]
- [-3617972.07032587]
- [-3106978.07552878]
- [-2593734.6006956 ]
- [-2079300.20220311]
- [-1770546.7419616 ]
- [-1461474.7694844 ]
- [-1151636.22193945]
- [ -861403.80308585]
- [ -570219.36170081]
- [ -278501.98193607]]</t>
+          <t>[[-4315036.73149233]
+ [-3960963.91804142]
+ [-3605626.39629023]
+ [-3095867.02568193]
+ [-2584130.1716071 ]
+ [-2071521.95226446]
+ [-1763826.38130533]
+ [-1455513.56778873]
+ [-1146603.35051031]
+ [ -857775.17453666]
+ [ -568410.70137439]
+ [ -278501.81459757]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10220,18 +10216,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.23984864e+08]
- [ 2.94433637e+08]
- [ 2.64769723e+08]
- [ 2.22212632e+08]
- [ 1.79496896e+08]
- [ 1.36703589e+08]
- [ 1.11026741e+08]
- [ 8.53346563e+07]
- [ 5.96039492e+07]
- [ 3.55415290e+07]
- [ 1.14497012e+07]
- [-1.26341973e+07]]</t>
+          <t>[[ 3.23081547e+08]
+ [ 2.93557947e+08]
+ [ 2.63940912e+08]
+ [ 2.21475706e+08]
+ [ 1.78871363e+08]
+ [ 1.36211862e+08]
+ [ 1.10612708e+08]
+ [ 8.49778994e+07]
+ [ 5.93125732e+07]
+ [ 3.53377430e+07]
+ [ 1.13496027e+07]
+ [-1.26341968e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10254,18 +10250,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299696.94375691]
- [1299681.72725792]
- [1299666.50156843]
- [1299708.38136491]
- [1299686.56533758]
- [1299664.7378989 ]
- [1299658.54375541]
- [1299683.75103483]
- [1299725.6161243 ]
- [1299756.19807727]
- [1299755.63983115]
- [1299755.55903062]]</t>
+          <t>[[1299645.86221391]
+ [1299630.67498924]
+ [1299615.48188297]
+ [1299663.36057452]
+ [1299641.59840777]
+ [1299619.82816641]
+ [1299721.13099904]
+ [1299727.45467695]
+ [1299735.98266198]
+ [1299752.33591793]
+ [1299781.81785447]
+ [1299823.84198275]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10439,18 +10435,18 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-433.45886933]
- [-498.11098302]
- [-543.35563483]
- [-578.98977215]
- [-620.2143425 ]
- [-654.24896106]
- [-683.49576931]
- [-591.24559244]
- [-493.58003057]
- [-384.54058039]
- [-374.78657101]
- [-363.97090624]
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-605.89650176]
+ [-573.30732989]
+ [-538.04612995]
+ [-481.70542688]
+ [-420.35937827]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -10474,7 +10470,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[925300.85637238]</t>
+          <t>[1119618.63576587]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10497,7 +10493,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[61.26609596]</t>
+          <t>[54.52640927]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10520,7 +10516,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[4.97962092e+09 4.97962092e+09 3.30202948e+07 0.00000000e+00
+          <t>[4.97992291e+09 4.97992291e+09 3.74330577e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10575,10 +10571,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          27567.58323521
-  28898.60721297  33033.98623873  40422.94053529  51829.86773143
-  68473.56384445  92230.32452283 107649.77263452 126112.4806614
- 148353.48280055      0.              0.              0.
+          <t>[     0.              0.              0.          23803.27314111
+  24954.37407775  28529.59616942  34924.2494355   44814.08301714
+  59257.58964838  79884.65416948  93272.62746048 109297.92285244
+ 128591.36920212      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10829,10 +10825,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          27567.58323521
-  28898.60721297  33033.98623873  40422.94053529  51829.86773143
-  68473.56384445  92230.32452283 107649.77263452 126112.4806614
- 148353.48280055      0.              0.              0.
+          <t>[     0.              0.              0.          23803.27314111
+  24954.37407775  28529.59616942  34924.2494355   44814.08301714
+  59257.58964838  79884.65416948  93272.62746048 109297.92285244
+ 128591.36920212      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11214,10 +11210,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -27567.58323521
-  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
-  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
- -148353.48280055       0.               0.               0.
+          <t>[      0.               0.               0.          -23803.27314111
+  -24954.37407775  -28529.59616942  -34924.2494355   -44814.08301714
+  -59257.58964838  -79884.65416948  -93272.62746048 -109297.92285244
+ -128591.36920212       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11264,8 +11260,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[167.77025494 167.77025494 167.77025494 167.77025494 167.77025494
- 167.77025494]</t>
+          <t>[151.81143523 140.19194168 139.18104894 148.71503956 153.06796722
+ 155.03134994]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11322,7 +11318,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.08288275 1.00726315 0.93589088 0.97156213 0.98733558]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11366,10 +11362,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
- 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
- 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
- 6.45915482]</t>
+          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11415,7 +11408,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[10485.55077632]</t>
+          <t>[9047.78684234]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11438,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[1.0539539e+08]</t>
+          <t>[90943723.13427062]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11480,7 +11473,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[131.0693847]</t>
+          <t>[113.09733553]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11503,7 +11496,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[1367.07599464]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11526,7 +11519,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[1367.07599464]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11549,8 +11542,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[1.07476895e+07 1.07476895e+07 3.68289794e+05 5.73239058e+09
- 5.73239058e+09 0.00000000e+00]</t>
+          <t>[9.27398151e+06 9.27398151e+06 2.95200000e+05 4.94637327e+09
+ 4.94637327e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11622,10 +11615,8 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11879,8 +11870,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[25925.56895576 25925.56895576 25925.56895576 25925.56895576
- 25925.56895576 25925.56895576]</t>
+          <t>[24706.77418833 26739.83583357 26932.64581295 25217.71187295
+ 24505.29055741 24196.96016044]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11907,8 +11898,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
- 534407.51865842 534407.51865842]</t>
+          <t>[438901.65579949 474499.48092137 477871.38877536 447855.31747718
+ 435369.49207836 429962.72320923]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11935,8 +11926,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
- 534407.51865842 534407.51865842]</t>
+          <t>[438901.65579949 474499.48092137 477871.38877536 447855.31747718
+ 435369.49207836 429962.72320923]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11963,8 +11954,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
- 1.28063148e+13 1.28063148e+13]</t>
+          <t>[1.05176529e+13 1.13707041e+13 1.14515070e+13 1.07322147e+13
+ 1.04330096e+13 1.03034441e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11991,8 +11982,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
- 1.28063148e+13 1.28063148e+13]</t>
+          <t>[1.05176529e+13 1.13707041e+13 1.14515070e+13 1.07322147e+13
+ 1.04330096e+13 1.03034441e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12019,8 +12010,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[1.01554077e+13 1.01554077e+13 1.01554077e+13 1.01554077e+13
- 1.01554077e+13 1.01554077e+13]</t>
+          <t>[8.34049876e+12 9.01696833e+12 9.08104508e+12 8.51064622e+12
+ 8.27337664e+12 8.17063119e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12047,8 +12038,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[6.21269326e+11 6.21269326e+11 6.21269326e+11 6.21269326e+11
- 6.21269326e+11 6.21269326e+11]</t>
+          <t>[5.92062645e+11 6.40782071e+11 6.45402488e+11 6.04306539e+11
+ 5.87234377e+11 5.79845678e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12156,12 +12147,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
- [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
- [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
- [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
- [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
- [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]]</t>
+          <t>[[0.         0.         0.33780209 0.1140939  0.1140939  0.        ]
+ [0.         0.         0.3121186  0.10553436 0.10553436 0.        ]
+ [0.         0.         0.30988415 0.1047897  0.1047897  0.        ]
+ [0.         0.         0.33095786 0.1118129  0.1118129  0.        ]
+ [0.         0.         0.34057952 0.11501954 0.11501954 0.        ]
+ [0.         0.         0.34491936 0.11646591 0.11646591 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12184,12 +12175,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.52876336 0.52876336 0.         0.         0.         0.05043726]
- [0.52876336 0.52876336 0.         0.         0.         0.05043726]
- [0.52876336 0.52876336 0.         0.         0.         0.05043726]
- [0.52876336 0.52876336 0.         0.         0.         0.05043726]
- [0.52876336 0.52876336 0.         0.         0.         0.05043726]
- [0.52876336 0.52876336 0.         0.         0.         0.05043726]]</t>
+          <t>[[0.55468689 0.55468689 0.         0.         0.         0.05704695]
+ [0.5123835  0.5123835  0.         0.         0.         0.05276718]
+ [0.50870309 0.50870309 0.         0.         0.         0.05239485]
+ [0.5434138  0.5434138  0.         0.         0.         0.05590645]
+ [0.55926155 0.55926155 0.         0.         0.         0.05750977]
+ [0.56640965 0.56640965 0.         0.         0.         0.05823296]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12212,7 +12203,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1292.17865451]</t>
+          <t>[1269.63308579]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12235,7 +12226,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[5983171.69572365]</t>
+          <t>[5878806.24911114]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12258,7 +12249,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[2462929.0507968]</t>
+          <t>[2432867.68368616]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12281,7 +12272,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[47.5]</t>
+          <t>[47.58292765]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12304,7 +12295,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
+          <t>[7.32473977e+09 7.32473977e+09 8.63930576e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12328,9 +12319,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12353,8 +12342,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.08457861 0.08457861 0.08457861 0.09158872 0.09158872 0.09158872
+ 0.09225394 0.09225394 0.09225394 0.08633962 0.08633962 0.08633962
+ 0.0838843  0.0838843  0.0838843  0.08282196 0.08282196 0.08282196]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12402,7 +12392,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2562929.0507968]</t>
+          <t>[2532867.68368616]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12425,7 +12415,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[6483171.69572365]</t>
+          <t>[6378806.24911114]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12448,7 +12438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[49.35334822]</t>
+          <t>[49.4549983]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12471,7 +12461,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[8.36466631e+09 8.36466631e+09 1.05709497e+08 0.00000000e+00
+          <t>[8.22903977e+09 8.22903977e+09 8.99930576e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12495,7 +12485,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[3488229.90716918]</t>
+          <t>[3652486.31945204]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12518,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[9234943.48449078]</t>
+          <t>[9549843.06707435]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12568,7 +12558,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.22]</t>
+          <t>[0.21999715]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12591,7 +12581,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22123536]</t>
+          <t>[0.22103805]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12614,7 +12604,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.22       0.22123536 0.91024525 0.94313985 1.06630231 1.75958291]</t>
+          <t>[0.21999715 0.22103805 0.98966939 1.01399478 1.07752046 1.79466964]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12637,7 +12627,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22123536 1.06630231 1.86444285]</t>
+          <t>[0.22103805 1.07752046 1.96945081]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12660,7 +12650,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.22       0.94313985 1.75958291]</t>
+          <t>[0.21999715 0.98966939 1.79466964]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12683,7 +12673,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.14887393 0.         0.        ]</t>
+          <t>[4.25019629 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12702,9 +12692,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.71412898  -0.07320713   1.48300085  -1.73099962   0.60707692]
- [ -3.0500299   -0.90446147  15.30270094 -21.80022102  11.45201145]
- [ -6.74648697   5.17618504  16.64300739  -4.93843621  -9.13426926]]</t>
+          <t>[[  0.88074472   0.25386566  -0.56718979   0.91927934  -0.48669993]
+ [ -3.33858408   0.73033862  10.10656145 -11.48051583   4.98219984]
+ [ -7.41384514   7.93101734  22.3522709  -17.11611824  -4.75332486]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12723,9 +12713,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.70773291  -0.0790815    1.52385255  -1.80558003   0.65307608]
- [ -3.01943656  -1.43594966  17.06453226 -26.14826234  14.5391163 ]
- [ -5.78840884   3.85757887  14.24668399  -4.96888285  -6.34697118]]</t>
+          <t>[[  0.8745762    0.25128103  -0.54295188   0.87851724  -0.46142259]
+ [ -3.30311907   0.39565053  10.68505555 -13.26731186   6.48972485]
+ [ -6.01624162   5.68825782  15.58690579  -9.31490401  -4.94401798]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12744,9 +12734,9 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[-0.99529406  3.1134978   4.0788165  -9.43087637  4.23385613]
- [ 0.          0.          0.          0.          0.        ]
- [ 0.          0.          0.          0.          0.        ]]</t>
+          <t>[[ -1.05769564   5.56102173 -12.08382785  16.31185428  -7.73135253]
+ [  0.           0.           0.           0.           0.        ]
+ [  0.           0.           0.           0.           0.        ]]</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
@@ -12765,9 +12755,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.89161116   2.19462962  -6.16911065   6.3411245   -2.25825464]
- [ -0.81878715   6.37499727 -13.7779875   13.37952293  -4.15774556]
- [  2.04337094  -1.36800335   4.03973774  -2.83988158  -0.87522375]]</t>
+          <t>[[  0.91785493   1.51746539  -4.41644262   4.86703881  -1.88591651]
+ [ -0.20187459   3.55401282  -7.52841911   8.13073142  -2.95445054]
+ [  3.22143139  -3.26866627   9.70617742 -10.33115155   1.67220901]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12786,9 +12776,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[  0.87502695   2.23601943  -6.24935788   6.40827909  -2.2699676 ]
- [ -1.03501443   6.9433517  -15.02212347  14.32631723  -4.21253103]
- [  1.38819212   0.41025377  -0.0935542    1.21503694  -1.91992862]]</t>
+          <t>[[ 0.90596346  1.540457   -4.46100837  4.90879078 -1.89420287]
+ [-0.33707953  3.83654058 -8.22955543  8.7643884  -3.03429402]
+ [ 1.98690462 -0.88377948  3.72451056 -3.48417864 -0.34345705]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12807,7 +12797,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -18.17874805  140.79319222 -368.25191866  403.62826665 -156.99079215]
+          <t>[[  -5.69810709   45.15764077 -123.0644708   143.74685898  -59.14192186]
  [   0.            0.            0.            0.            0.        ]
  [   0.            0.            0.            0.            0.        ]]</t>
         </is>
@@ -12832,37 +12822,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.84328965e-04]
- [3.01972612e-04]
- [4.75146503e-05]
- [2.48169438e-03]
- [6.34500972e-03]
- [1.17542864e-02]
- [1.86563567e-02]
- [2.69979254e-02]
- [3.67255943e-02]
- [4.77858858e-02]
- [5.37990137e-02]
- [6.01252189e-02]
- [6.67578083e-02]
- [7.36900886e-02]
- [8.09153814e-02]
- [8.84270124e-02]
- [9.22881103e-02]
- [9.62182862e-02]
- [1.00216705e-01]
- [1.34827681e-01]
- [1.78854233e-01]
- [2.31363415e-01]
- [3.21659099e-01]
- [4.28413591e-01]
- [5.48068041e-01]
- [6.25064474e-01]
- [7.06674761e-01]
- [7.94429357e-01]
- [8.81920847e-01]
- [9.71694325e-01]
- [1.05973328e+00]]</t>
+          <t>[[1.89670333e-04]
+ [3.40631826e-04]
+ [2.59380026e-05]
+ [2.87215501e-03]
+ [7.37739019e-03]
+ [1.36259022e-02]
+ [2.15576695e-02]
+ [3.11060802e-02]
+ [4.22061993e-02]
+ [5.47980214e-02]
+ [6.16500563e-02]
+ [6.88759735e-02]
+ [7.64677555e-02]
+ [8.44241319e-02]
+ [9.27403858e-02]
+ [1.01408287e-01]
+ [1.05872433e-01]
+ [1.10422467e-01]
+ [1.15057345e-01]
+ [1.53218793e-01]
+ [1.99048646e-01]
+ [2.51784524e-01]
+ [3.40512237e-01]
+ [4.44187962e-01]
+ [5.59576360e-01]
+ [6.35011981e-01]
+ [7.15873218e-01]
+ [8.01573724e-01]
+ [8.84963272e-01]
+ [9.69843292e-01]
+ [1.05298314e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12885,7 +12875,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.05973328]</t>
+          <t>[1.05298314]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12908,24 +12898,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-42228516.43436101]
- [-39686169.71739706]
- [-37007363.46496855]
- [-35126127.22471119]
- [-33226851.85698009]
- [-31289546.20698587]
- [-29290214.11882558]
- [-27198314.99528399]
- [-24973094.35257511]
- [-23795843.29699851]
- [-22562686.68441746]
- [-21262368.93686927]
- [-20170136.78553253]
- [-19322687.87987806]
- [-18475238.97422328]
- [-18051514.52139574]
- [-17627790.0685682 ]
- [-17204065.61574036]]</t>
+          <t>[[-43499164.0210854 ]
+ [-41076336.35285855]
+ [-38535682.4856563 ]
+ [-36626651.26111335]
+ [-34702023.17976443]
+ [-32744494.51139108]
+ [-30720621.95337302]
+ [-28616449.36214013]
+ [-26396543.86476718]
+ [-25286523.66293101]
+ [-24127971.57351482]
+ [-22911143.57322212]
+ [-21897944.67174011]
+ [-21096921.52305143]
+ [-20295898.37436292]
+ [-19900426.11070383]
+ [-19504953.84704415]
+ [-19109481.58338446]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12948,24 +12938,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[-4284114.30169103]
- [-9422801.84148106]
- [-8909692.12284653]
- [ 2428470.72349775]
- [ 2428695.02931387]
- [ 2428925.42595564]
- [ 2429170.41005958]
- [ 2429441.3073732 ]
- [ 2429754.21826773]
- [ 2428982.71556465]
- [ 2429089.76121815]
- [ 2429211.57829398]
- [ 2429147.74636079]
- [ 2428843.9406437 ]
- [ 2428880.33601435]
- [ 2428416.32902703]
- [ 2428425.10925293]
- [ 2428433.78331507]]</t>
+          <t>[[ -4346661.46078604]
+ [-10032595.40499371]
+ [ -9760750.09622444]
+ [  2428570.67889465]
+ [  2428826.44704818]
+ [  2429087.07084319]
+ [  2429368.97373374]
+ [  2429666.92676256]
+ [  2430004.96317313]
+ [  2429061.79166109]
+ [  2429175.35856616]
+ [  2429303.6330797 ]
+ [  2429220.7535884 ]
+ [  2428924.70069883]
+ [  2428966.94858585]
+ [  2428455.14707926]
+ [  2428465.33602598]
+ [  2428475.4012266 ]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12988,24 +12978,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -55245.56616472]
- [-121751.26421453]
- [-115990.67619437]
- [  29101.74168551]
- [  29104.64083895]
- [  29107.62549496]
- [  29110.80605607]
- [  29114.33010226]
- [  29118.40787364]
- [  29108.43395523]
- [  29109.83184014]
- [  29111.42353679]
- [  29110.6065964 ]
- [  29106.66972929]
- [  29107.15198938]
- [  29101.12048754]
- [  29101.23722852]
- [  29101.35269533]]</t>
+          <t>[[ -56034.38454239]
+ [-129566.47367053]
+ [-126929.70547854]
+ [  29103.02790097]
+ [  29106.33314142]
+ [  29109.70890187]
+ [  29113.36790452]
+ [  29117.24387638]
+ [  29121.64939945]
+ [  29109.45564393]
+ [  29110.9390025 ]
+ [  29112.6154857 ]
+ [  29111.55253398]
+ [  29107.71819953]
+ [  29108.27786278]
+ [  29101.62549737]
+ [  29101.76093227]
+ [  29101.8948814 ]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13028,24 +13018,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -832645.39629137]
- [-3014585.36101957]
- [-5395732.71689356]
- [-6159499.96703668]
- [-5963088.84808255]
- [-5766167.25666821]
- [-5568832.79859186]
- [-5371184.55654665]
- [-5173325.53478697]
- [-5074395.79772199]
- [-4975461.25321269]
- [-4876536.84643006]
- [-4777640.25518451]
- [-4678763.82093888]
- [-4579893.7070414 ]
- [-4530474.10972424]
- [-4481059.33981379]
- [-4431650.23621183]]</t>
+          <t>[[ -745368.36981875]
+ [-2951364.72321   ]
+ [-5451843.87666545]
+ [-6165863.67470458]
+ [-5968952.25203929]
+ [-5771438.88565024]
+ [-5573437.959199  ]
+ [-5375065.39153075]
+ [-5176436.77942421]
+ [-5077109.50513841]
+ [-4977758.07875364]
+ [-4878398.98339708]
+ [-4779049.57904011]
+ [-4679700.64844552]
+ [-4580340.07078611]
+ [-4530669.73837004]
+ [-4480999.79610847]
+ [-4431331.25647556]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13068,24 +13058,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[6.47757070e+07]
- [2.34186136e+08]
- [4.18293401e+08]
- [4.76505307e+08]
- [4.60129143e+08]
- [4.43713655e+08]
- [4.27266502e+08]
- [4.10795430e+08]
- [3.94308466e+08]
- [3.86065123e+08]
- [3.77821513e+08]
- [3.69578792e+08]
- [3.61338321e+08]
- [3.53099508e+08]
- [3.44861290e+08]
- [3.40743410e+08]
- [3.36625928e+08]
- [3.32508908e+08]]</t>
+          <t>[[5.79960160e+07]
+ [2.29319948e+08]
+ [4.22729893e+08]
+ [4.77087812e+08]
+ [4.60672794e+08]
+ [4.44211396e+08]
+ [4.27712592e+08]
+ [4.11185447e+08]
+ [3.94638975e+08]
+ [3.86364918e+08]
+ [3.78089131e+08]
+ [3.69812887e+08]
+ [3.61537526e+08]
+ [3.53262343e+08]
+ [3.44986406e+08]
+ [3.40849258e+08]
+ [3.36712175e+08]
+ [3.32575237e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13108,24 +13098,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 214322.06831683]
- [ 468332.56474577]
- [ 809072.76854084]
- [1299643.54972834]
- [1299634.27249288]
- [1299624.9064326 ]
- [1299615.35296939]
- [1299605.49378159]
- [1299595.17828359]
- [1299584.20553502]
- [1299578.40048683]
- [1299572.31982286]
- [1299565.90805065]
- [1299560.52238228]
- [1299556.34374209]
- [1299552.16512876]
- [1299550.07583216]
- [1299547.9865423 ]]</t>
+          <t>[[ 216276.28740691]
+ [ 471640.48621241]
+ [ 812248.27046914]
+ [1299645.29968115]
+ [1299636.17202941]
+ [1299626.96993421]
+ [1299616.48989165]
+ [1299606.88285394]
+ [1299596.8947939 ]
+ [1299594.87834154]
+ [1299589.25107607]
+ [1299583.37782939]
+ [1299580.58584396]
+ [1299575.30020278]
+ [1299571.1214674 ]
+ [1299568.29190461]
+ [1299566.20255613]
+ [1299564.11321435]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13148,9 +13138,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42847072e+06]
- [ 2.91017417e+04]
- [-3.70073635e+07]]</t>
+          <t>[[ 2.42857068e+06]
+ [ 2.91030279e+04]
+ [-3.85356825e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13173,9 +13163,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.35530258e+06]
- [ 4.92834437e+08]
- [ 1.29964355e+06]]</t>
+          <t>[[-6.36206049e+06]
+ [ 4.93447580e+08]
+ [ 1.29964530e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13227,11 +13217,11 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.15478013 10.30956025  9.46434038  8.30922692  7.15411346
   5.999     ]</t>
         </is>
       </c>
@@ -13255,11 +13245,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
- 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
+          <t>[0.07904543 0.07904543 0.07904543 0.08559693 0.08559693 0.08559693
+ 0.08621863 0.08621863 0.08621863 0.08069123 0.08069123 0.08069123
+ 0.07839655 0.07839655 0.07839655 0.0774037  0.0774037  0.0774037
+ 0.04       0.04       0.04       0.0275     0.0275     0.0275
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13358,11 +13348,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
- 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
- 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
+          <t>[3.16753515 3.16753515 3.16753515 3.42818408 3.42818408 3.42818408
+ 3.45290331 3.45290331 3.45290331 3.23303998 3.23303998 3.23303998
+ 3.14170392 3.14170392 3.14170392 3.10217438 3.10217438 3.10217438
+ 1.60814358 1.60814358 1.60814358 1.10675423 1.10675423 1.10675423
+ 0.58300533 0.54038718 0.49776903 0.44733806 0.38909428 0.3308505 ]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13385,11 +13375,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665
+ 0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13412,11 +13402,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
- 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
- 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
+          <t>[1.80281889 1.80281889 1.80281889 1.95166317 1.95166317 1.95166317
+ 1.96578321 1.96578321 1.96578321 1.84021826 1.84021826 1.84021826
+ 1.78807213 1.78807213 1.78807213 1.76550665 1.76550665 1.76550665
+ 0.91392404 0.91392404 0.91392404 0.62868592 0.62868592 0.62868592
+ 0.33102667 0.3068422  0.28265775 0.25403979 0.22098835 0.18793698]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13439,12 +13429,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
- 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
-  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
-  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
+          <t>[112.5388861  112.5388861  112.5388861  121.66653357 121.66653357
+ 121.66653357 122.53112533 122.53112533 122.53112533 114.83469679
+ 114.83469679 114.83469679 111.6332031  111.6332031  111.6332031
+ 110.2468521  110.2468521  110.2468521   57.50850094  57.50850094
+  57.50850094  39.66095627  39.66095627  39.66095627  19.48536288
+  15.5169425   12.12759829   8.80235716   5.79237107   3.56113019]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13467,11 +13457,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605
+ 28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13494,11 +13484,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
- 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
- 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
+          <t>[56.26944305 56.26944305 56.26944305 60.83326678 60.83326678 60.83326678
+ 61.26556266 61.26556266 61.26556266 57.41734839 57.41734839 57.41734839
+ 55.81660155 55.81660155 55.81660155 55.12342605 55.12342605 55.12342605
+ 28.75425047 28.75425047 28.75425047 19.83047813 19.83047813 19.83047813
+  9.74268144  7.75847125  6.06379915  4.40117858  2.89618553  1.7805651 ]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13623,36 +13613,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-4.22285164e+07]
- [-3.96861697e+07]
- [-3.70073635e+07]
- [-3.51261272e+07]
- [-3.32268519e+07]
- [-3.12895462e+07]
- [-2.92902141e+07]
- [-2.71983150e+07]
- [-2.49730944e+07]
- [-2.37958433e+07]
- [-2.25626867e+07]
- [-2.12623689e+07]
- [-2.01701368e+07]
- [-1.93226879e+07]
- [-1.84752390e+07]
- [-1.80515145e+07]
- [-1.76277901e+07]
- [-1.72040656e+07]
- [-1.51797942e+07]
- [-1.41331795e+07]
- [-1.30859081e+07]
- [-1.19325158e+07]
- [-1.07784673e+07]
- [-9.62377649e+06]
- [-8.98499523e+06]
- [-8.45525123e+06]
- [-8.03519454e+06]
- [-7.70139895e+06]
- [-7.38124271e+06]
- [ 1.90921128e-08]]</t>
+          <t>[[-4.34991640e+07]
+ [-4.10763364e+07]
+ [-3.85356825e+07]
+ [-3.66266513e+07]
+ [-3.47020232e+07]
+ [-3.27444945e+07]
+ [-3.07206220e+07]
+ [-2.86164494e+07]
+ [-2.63965439e+07]
+ [-2.52865237e+07]
+ [-2.41279716e+07]
+ [-2.29111436e+07]
+ [-2.18979447e+07]
+ [-2.10969215e+07]
+ [-2.02958984e+07]
+ [-1.99004261e+07]
+ [-1.95049538e+07]
+ [-1.91094816e+07]
+ [-1.66415920e+07]
+ [-1.51515629e+07]
+ [-1.36609220e+07]
+ [-1.21921462e+07]
+ [-1.07227622e+07]
+ [-9.25278372e+06]
+ [-8.78500491e+06]
+ [-8.35096991e+06]
+ [-7.95098389e+06]
+ [-7.61523940e+06]
+ [-7.32295530e+06]
+ [-1.04482751e-08]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13675,36 +13665,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.28411430e+06]
- [-9.42280184e+06]
- [-8.90969212e+06]
- [ 2.42847072e+06]
- [ 2.42869503e+06]
- [ 2.42892543e+06]
- [ 2.42917041e+06]
- [ 2.42944131e+06]
- [ 2.42975422e+06]
- [ 2.42898272e+06]
- [ 2.42908976e+06]
- [ 2.42921158e+06]
- [ 2.42914775e+06]
- [ 2.42884394e+06]
- [ 2.42888034e+06]
- [ 2.42841633e+06]
- [ 2.42842511e+06]
- [ 2.42843378e+06]
- [ 2.42942048e+06]
- [ 2.42983395e+06]
- [ 2.43020315e+06]
- [ 2.43094535e+06]
- [ 2.43149771e+06]
- [ 2.43193162e+06]
- [ 2.43030221e+06]
- [ 2.43001550e+06]
- [ 2.42970787e+06]
- [ 2.42943875e+06]
- [ 2.42941409e+06]
- [ 1.39938100e+03]]</t>
+          <t>[[-4.34666146e+06]
+ [-1.00325954e+07]
+ [-9.76075010e+06]
+ [ 2.42857068e+06]
+ [ 2.42882645e+06]
+ [ 2.42908707e+06]
+ [ 2.42936897e+06]
+ [ 2.42966693e+06]
+ [ 2.43000496e+06]
+ [ 2.42906179e+06]
+ [ 2.42917536e+06]
+ [ 2.42930363e+06]
+ [ 2.42922075e+06]
+ [ 2.42892470e+06]
+ [ 2.42896695e+06]
+ [ 2.42845515e+06]
+ [ 2.42846534e+06]
+ [ 2.42847540e+06]
+ [ 2.43027510e+06]
+ [ 2.43075380e+06]
+ [ 2.43118140e+06]
+ [ 2.43170433e+06]
+ [ 2.43234265e+06]
+ [ 2.43284367e+06]
+ [ 2.42963073e+06]
+ [ 2.42962192e+06]
+ [ 2.42958247e+06]
+ [ 2.42937558e+06]
+ [ 2.42921071e+06]
+ [ 1.07102497e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13727,36 +13717,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-5.52455662e+04]
- [-1.21751264e+05]
- [-1.15990676e+05]
- [ 2.91017417e+04]
- [ 2.91046408e+04]
- [ 2.91076255e+04]
- [ 2.91108061e+04]
- [ 2.91143301e+04]
- [ 2.91184079e+04]
- [ 2.91084340e+04]
- [ 2.91098318e+04]
- [ 2.91114235e+04]
- [ 2.91106066e+04]
- [ 2.91066697e+04]
- [ 2.91071520e+04]
- [ 2.91011205e+04]
- [ 2.91012372e+04]
- [ 2.91013527e+04]
- [ 2.91142640e+04]
- [ 2.91198265e+04]
- [ 2.91248537e+04]
- [ 2.91349780e+04]
- [ 2.91428223e+04]
- [ 2.91492435e+04]
- [ 2.91274055e+04]
- [ 2.91238445e+04]
- [ 2.91202106e+04]
- [ 2.91173266e+04]
- [ 2.91182964e+04]
- [ 2.29909465e+01]]</t>
+          <t>[[-5.60343845e+04]
+ [-1.29566474e+05]
+ [-1.26929705e+05]
+ [ 2.91030279e+04]
+ [ 2.91063331e+04]
+ [ 2.91097089e+04]
+ [ 2.91133679e+04]
+ [ 2.91172439e+04]
+ [ 2.91216494e+04]
+ [ 2.91094556e+04]
+ [ 2.91109390e+04]
+ [ 2.91126155e+04]
+ [ 2.91115525e+04]
+ [ 2.91077182e+04]
+ [ 2.91082779e+04]
+ [ 2.91016255e+04]
+ [ 2.91017609e+04]
+ [ 2.91018949e+04]
+ [ 2.91254130e+04]
+ [ 2.91318517e+04]
+ [ 2.91376724e+04]
+ [ 2.91449311e+04]
+ [ 2.91539938e+04]
+ [ 2.91614066e+04]
+ [ 2.91181251e+04]
+ [ 2.91183748e+04]
+ [ 2.91183045e+04]
+ [ 2.91159393e+04]
+ [ 2.91143418e+04]
+ [ 1.68603614e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13779,36 +13769,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-8.32645396e+05]
- [-3.01458536e+06]
- [-5.39573272e+06]
- [-6.15949997e+06]
- [-5.96308885e+06]
- [-5.76616726e+06]
- [-5.56883280e+06]
- [-5.37118456e+06]
- [-5.17332553e+06]
- [-5.07439580e+06]
- [-4.97546125e+06]
- [-4.87653685e+06]
- [-4.77764026e+06]
- [-4.67876382e+06]
- [-4.57989371e+06]
- [-4.53047411e+06]
- [-4.48105934e+06]
- [-4.43165024e+06]
- [-4.07310870e+06]
- [-3.71310941e+06]
- [-3.35208347e+06]
- [-2.83461351e+06]
- [-2.31573256e+06]
- [-1.79645175e+06]
- [-1.48522083e+06]
- [-1.17396942e+06]
- [-8.62325549e+05]
- [-5.70859693e+05]
- [-2.78945854e+05]
- [-6.52944062e-04]]</t>
+          <t>[[-7.45368370e+05]
+ [-2.95136472e+06]
+ [-5.45184388e+06]
+ [-6.16586367e+06]
+ [-5.96895225e+06]
+ [-5.77143889e+06]
+ [-5.57343796e+06]
+ [-5.37506539e+06]
+ [-5.17643678e+06]
+ [-5.07710951e+06]
+ [-4.97775808e+06]
+ [-4.87839898e+06]
+ [-4.77904958e+06]
+ [-4.67970065e+06]
+ [-4.58034007e+06]
+ [-4.53066974e+06]
+ [-4.48099980e+06]
+ [-4.43133126e+06]
+ [-4.07109300e+06]
+ [-3.70987171e+06]
+ [-3.34812214e+06]
+ [-2.83029873e+06]
+ [-2.31160775e+06]
+ [-1.79310177e+06]
+ [-1.48248112e+06]
+ [-1.17154304e+06]
+ [-8.60323748e+05]
+ [-5.69658169e+05]
+ [-2.78826968e+05]
+ [-4.20161952e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13831,36 +13821,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 6.47757070e+07]
- [ 2.34186136e+08]
- [ 4.18293401e+08]
- [ 4.76505307e+08]
- [ 4.60129143e+08]
- [ 4.43713655e+08]
- [ 4.27266502e+08]
- [ 4.10795430e+08]
- [ 3.94308466e+08]
- [ 3.86065123e+08]
- [ 3.77821513e+08]
- [ 3.69578792e+08]
- [ 3.61338321e+08]
- [ 3.53099508e+08]
- [ 3.44861290e+08]
- [ 3.40743410e+08]
- [ 3.36625928e+08]
- [ 3.32508908e+08]
- [ 3.02639587e+08]
- [ 2.72663005e+08]
- [ 2.42612620e+08]
- [ 1.99562665e+08]
- [ 1.56419778e+08]
- [ 1.13261053e+08]
- [ 8.73983075e+07]
- [ 6.15437297e+07]
- [ 3.56804327e+07]
- [ 1.15308167e+07]
- [-1.26071736e+07]
- [ 3.97411880e-02]]</t>
+          <t>[[ 5.79960160e+07]
+ [ 2.29319948e+08]
+ [ 4.22729893e+08]
+ [ 4.77087812e+08]
+ [ 4.60672794e+08]
+ [ 4.44211396e+08]
+ [ 4.27712592e+08]
+ [ 4.11185447e+08]
+ [ 3.94638975e+08]
+ [ 3.86364918e+08]
+ [ 3.78089131e+08]
+ [ 3.69812887e+08]
+ [ 3.61537526e+08]
+ [ 3.53262343e+08]
+ [ 3.44986406e+08]
+ [ 3.40849258e+08]
+ [ 3.36712175e+08]
+ [ 3.32575237e+08]
+ [ 3.02575682e+08]
+ [ 2.72504732e+08]
+ [ 2.42397436e+08]
+ [ 1.99317063e+08]
+ [ 1.56183968e+08]
+ [ 1.13077619e+08]
+ [ 8.72577995e+07]
+ [ 6.14260982e+07]
+ [ 3.55890772e+07]
+ [ 1.14794524e+07]
+ [-1.26135212e+07]
+ [ 2.66913852e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13883,35 +13873,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 214322.06831683]
- [ 468332.56474577]
- [ 809072.76854084]
- [1299643.54972834]
- [1299634.27249288]
- [1299624.9064326 ]
- [1299615.35296939]
- [1299605.49378159]
- [1299595.17828359]
- [1299584.20553502]
- [1299578.40048683]
- [1299572.31982286]
- [1299565.90805065]
- [1299560.52238228]
- [1299556.34374209]
- [1299552.16512876]
- [1299550.07583216]
- [1299547.9865423 ]
- [1299696.90265974]
- [1299681.72943394]
- [1299666.5132912 ]
- [1299708.40574408]
- [1299686.60211815]
- [1299664.78682196]
- [1299658.60797545]
- [1299683.82060062]
- [1299725.67349568]
- [1299756.2265236 ]
- [1299755.64772689]
+          <t>[[ 216276.28740691]
+ [ 471640.48621241]
+ [ 812248.27046914]
+ [1299645.29968115]
+ [1299636.17202941]
+ [1299626.96993421]
+ [1299616.48989165]
+ [1299606.88285394]
+ [1299596.8947939 ]
+ [1299594.87834154]
+ [1299589.25107607]
+ [1299583.37782939]
+ [1299580.58584396]
+ [1299575.30020278]
+ [1299571.1214674 ]
+ [1299568.29190461]
+ [1299566.20255613]
+ [1299564.11321435]
+ [1299645.82925918]
+ [1299630.67029381]
+ [1299615.48342419]
+ [1299663.36946531]
+ [1299641.61630603]
+ [1299619.85486746]
+ [1299721.19572325]
+ [1299727.52405743]
+ [1299736.04744706]
+ [1299752.39527296]
+ [1299781.86764714]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13935,24 +13925,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-6597674.64452458]
- [10139755.9051047 ]
- [28303916.78431388]
- [34358322.72899121]
- [33385763.62833883]
- [32420938.9498886 ]
- [31471790.1150875 ]
- [30548236.09851347]
- [29663295.02131929]
- [29240285.47555303]
- [28834070.68060733]
- [28448145.8539473 ]
- [27999828.27477635]
- [27478021.33034195]
- [26956270.44107866]
- [26695510.88109689]
- [26434788.8346227 ]
- [26174110.38386125]]</t>
+          <t>[[-7548196.91322531]
+ [11486449.32459318]
+ [32913530.13643908]
+ [36375237.00000128]
+ [35317517.34433525]
+ [34264819.84602764]
+ [32994248.5858997 ]
+ [31984950.81293165]
+ [31007277.70653702]
+ [32556576.03155856]
+ [32050058.32487531]
+ [31561518.11976357]
+ [31896749.97393366]
+ [31262111.09795699]
+ [30627391.32732315]
+ [30688582.87027545]
+ [30365725.51667012]
+ [30042883.90347761]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13975,24 +13965,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2275573.6448899 ]
- [5004924.3317631 ]
- [4749655.712804  ]
- [1345440.65143613]
- [1345558.82867985]
- [1345680.22265255]
- [1345809.32179451]
- [1345952.10967374]
- [1346117.09319925]
- [1345708.59970237]
- [1345764.93267878]
- [1345829.06391742]
- [1345795.00694134]
- [1345634.09833143]
- [1345653.14757262]
- [1345407.5801087 ]
- [1345412.1246923 ]
- [1345416.61313667]]</t>
+          <t>[[2422767.20765128]
+ [5590558.66213824]
+ [5457922.81288475]
+ [1308541.04997321]
+ [1308671.66210732]
+ [1308804.75877515]
+ [1299554.76371139]
+ [1299705.87565395]
+ [1299877.36124324]
+ [1387983.03608123]
+ [1388044.46111398]
+ [1388113.86629563]
+ [1428516.46753233]
+ [1428350.59863501]
+ [1428374.0037118 ]
+ [1446326.00776992]
+ [1446331.66568322]
+ [1446337.25350085]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14017,17 +14007,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-21143650.00018121]
- [-39502587.51468726]
- [-33952287.45011268]
- [-28443103.21184767]
- [-22983059.50527489]
- [-17585410.31376875]
- [-12270346.15388467]
- [ -8342578.77493327]
- [ -5773850.50080107]
- [ -3246843.86866905]
- [  -997330.07365149]
+ [-19120341.3565515 ]
+ [-32970159.21490674]
+ [-28337696.17051776]
+ [-23739549.74751909]
+ [-19043103.76880594]
+ [-14570766.4963087 ]
+ [-10166856.8118168 ]
+ [ -7389353.42037395]
+ [ -5114128.74817757]
+ [ -2875858.59164534]
+ [  -909406.51857947]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14091,24 +14081,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.03909485]
- [0.06786131]
- [0.22256766]
- [0.32586799]
- [0.29689361]
- [0.26858514]
- [0.24115856]
- [0.21492493]
- [0.19032883]
- [0.17429528]
- [0.16378561]
- [0.15409696]
- [0.14552107]
- [0.14028142]
- [0.13763699]
- [0.13631531]
- [0.13499411]
- [0.13367322]]</t>
+          <t>[[0.04393219]
+ [0.07642321]
+ [0.23683444]
+ [0.30583667]
+ [0.28122668]
+ [0.25719153]
+ [0.23225952]
+ [0.21013855]
+ [0.18932309]
+ [0.1876587 ]
+ [0.17790162]
+ [0.16878787]
+ [0.16509966]
+ [0.15952619]
+ [0.15630769]
+ [0.15663074]
+ [0.15499389]
+ [0.15335723]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14127,24 +14117,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.0711731 ]
- [0.08466304]
- [0.37012411]
- [0.40731353]
- [0.3527852 ]
- [0.29870868]
- [0.2451904 ]
- [0.19242525]
- [0.14078205]
- [0.0593246 ]
- [0.04879507]
- [0.04009297]
- [0.03355611]
- [0.03065847]
- [0.02950144]
- [0.0257738 ]
- [0.0252384 ]
- [0.02470415]]</t>
+          <t>[[0.07230033]
+ [0.08720834]
+ [0.32264444]
+ [0.29047576]
+ [0.25184898]
+ [0.21359981]
+ [0.17287272]
+ [0.13641031]
+ [0.10101886]
+ [0.05413605]
+ [0.04622437]
+ [0.03937438]
+ [0.03582134]
+ [0.03345111]
+ [0.03234153]
+ [0.02942584]
+ [0.02890053]
+ [0.02837606]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14163,24 +14153,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.11158069]
- [0.19505273]
- [0.28578069]
- [0.3124571 ]
- [0.300313  ]
- [0.28808529]
- [0.27573247]
- [0.26320089]
- [0.25041791]
- [0.24390779]
- [0.23729428]
- [0.23055681]
- [0.22421841]
- [0.21834753]
- [0.21247904]
- [0.20954622]
- [0.20661412]
- [0.20368278]]</t>
+          <t>[[0.10983025]
+ [0.19834018]
+ [0.29843695]
+ [0.29962102]
+ [0.28806358]
+ [0.27643625]
+ [0.26279576]
+ [0.2509893 ]
+ [0.2389861 ]
+ [0.248774  ]
+ [0.2422778 ]
+ [0.23567816]
+ [0.23609986]
+ [0.23009746]
+ [0.2240972 ]
+ [0.2239136 ]
+ [0.22088674]
+ [0.2178606 ]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14203,36 +14193,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-6.59767464e+06]
- [ 1.01397559e+07]
- [ 2.83039168e+07]
- [ 3.43583227e+07]
- [ 3.33857636e+07]
- [ 3.24209389e+07]
- [ 3.14717901e+07]
- [ 3.05482361e+07]
- [ 2.96632950e+07]
- [ 2.92402855e+07]
- [ 2.88340707e+07]
- [ 2.84481459e+07]
- [ 2.79998283e+07]
- [ 2.74780213e+07]
- [ 2.69562704e+07]
- [ 2.66955109e+07]
- [ 2.64347888e+07]
- [ 2.61741104e+07]
- [ 6.99920097e+07]
- [ 6.26541536e+07]
- [ 5.52965306e+07]
- [ 5.77262308e+07]
- [ 4.36030411e+07]
- [ 2.94749533e+07]
- [ 2.56790144e+07]
- [ 2.51616120e+07]
- [ 1.97380628e+07]
- [-1.61945478e+06]
- [ 1.30051572e+06]
- [ 6.35391839e-02]]</t>
+          <t>[[-7.54819691e+06]
+ [ 1.14864493e+07]
+ [ 3.29135301e+07]
+ [ 3.63752370e+07]
+ [ 3.53175173e+07]
+ [ 3.42648198e+07]
+ [ 3.29942486e+07]
+ [ 3.19849508e+07]
+ [ 3.10072777e+07]
+ [ 3.25565760e+07]
+ [ 3.20500583e+07]
+ [ 3.15615181e+07]
+ [ 3.18967500e+07]
+ [ 3.12621111e+07]
+ [ 3.06273913e+07]
+ [ 3.06885829e+07]
+ [ 3.03657255e+07]
+ [ 3.00428839e+07]
+ [ 5.27942848e+07]
+ [ 4.74456429e+07]
+ [ 4.20897982e+07]
+ [ 4.92962324e+07]
+ [ 3.75724335e+07]
+ [ 2.58572943e+07]
+ [ 3.67839464e+07]
+ [ 2.70389210e+07]
+ [ 1.30490142e+07]
+ [-5.41963807e+06]
+ [-1.97984627e+06]
+ [ 4.92986873e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14255,36 +14245,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.27557364e+06]
- [5.00492433e+06]
- [4.74965571e+06]
- [1.34544065e+06]
- [1.34555883e+06]
- [1.34568022e+06]
- [1.34580932e+06]
- [1.34595211e+06]
- [1.34611709e+06]
- [1.34570860e+06]
- [1.34576493e+06]
- [1.34582906e+06]
- [1.34579501e+06]
- [1.34563410e+06]
- [1.34565315e+06]
- [1.34540758e+06]
- [1.34541212e+06]
- [1.34541661e+06]
- [3.97312363e+06]
- [3.97376724e+06]
- [3.97434172e+06]
- [5.16985428e+06]
- [5.17097221e+06]
- [5.17184958e+06]
- [5.63459033e+06]
- [6.87263859e+06]
- [8.80521888e+06]
- [1.04628800e+07]
- [1.09322826e+07]
- [5.99480495e+03]]</t>
+          <t>[[2.42276721e+06]
+ [5.59055866e+06]
+ [5.45792281e+06]
+ [1.30854105e+06]
+ [1.30867166e+06]
+ [1.30880476e+06]
+ [1.29955476e+06]
+ [1.29970588e+06]
+ [1.29987736e+06]
+ [1.38798304e+06]
+ [1.38804446e+06]
+ [1.38811387e+06]
+ [1.42851647e+06]
+ [1.42835060e+06]
+ [1.42837400e+06]
+ [1.44632601e+06]
+ [1.44633167e+06]
+ [1.44633725e+06]
+ [2.79495144e+06]
+ [2.79547370e+06]
+ [2.79594003e+06]
+ [4.06480986e+06]
+ [4.06582199e+06]
+ [4.06661571e+06]
+ [7.72632993e+06]
+ [8.36818957e+06]
+ [9.12591036e+06]
+ [1.02197687e+07]
+ [1.18607483e+07]
+ [5.69955778e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14309,34 +14299,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-2.11436500e+07]
- [-3.95025875e+07]
- [-3.39522875e+07]
- [-2.84431032e+07]
- [-2.29830595e+07]
- [-1.75854103e+07]
- [-1.22703462e+07]
- [-8.34257877e+06]
- [-5.77385050e+06]
- [-3.24684387e+06]
- [-9.97330074e+05]
+ [-1.91203414e+07]
+ [-3.29701592e+07]
+ [-2.83376962e+07]
+ [-2.37395497e+07]
+ [-1.90431038e+07]
+ [-1.45707665e+07]
+ [-1.01668568e+07]
+ [-7.38935342e+06]
+ [-5.11412875e+06]
+ [-2.87585859e+06]
+ [-9.09406519e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.98456370e+03]
- [-1.26915609e+04]
- [-1.42179835e+04]
- [-1.53413775e+04]
- [-2.13529932e+04]
- [-2.27083954e+04]
- [-2.38449567e+04]
- [-2.27001451e+04]
- [-1.92123708e+04]
- [-1.55297670e+04]
- [-1.34709362e+04]
- [-1.31473809e+04]
- [-1.27966554e+04]]</t>
+ [-1.83297091e+03]
+ [-7.65785203e+03]
+ [-8.57886706e+03]
+ [-9.25670214e+03]
+ [-1.44147831e+04]
+ [-1.53297755e+04]
+ [-1.60970350e+04]
+ [-2.94658650e+04]
+ [-2.79185293e+04]
+ [-2.62394405e+04]
+ [-2.40089283e+04]
+ [-2.12230451e+04]
+ [-1.83213563e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14407,36 +14397,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[3.90948468e-02]
- [6.78613065e-02]
- [2.22567657e-01]
- [3.25867991e-01]
- [2.96893613e-01]
- [2.68585142e-01]
- [2.41158559e-01]
- [2.14924931e-01]
- [1.90328834e-01]
- [1.74295277e-01]
- [1.63785611e-01]
- [1.54096958e-01]
- [1.45521068e-01]
- [1.40281425e-01]
- [1.37636994e-01]
- [1.36315312e-01]
- [1.34994108e-01]
- [1.33678253e-01]
- [3.57795238e-01]
- [3.20672252e-01]
- [2.83501022e-01]
- [2.97216421e-01]
- [2.26494289e-01]
- [1.56767452e-01]
- [1.39797954e-01]
- [1.41641368e-01]
- [1.26918651e-01]
- [9.25513793e-02]
- [9.65521259e-02]
- [8.38296266e-05]]</t>
+          <t>[[4.39321886e-02]
+ [7.64232148e-02]
+ [2.36834438e-01]
+ [3.05836671e-01]
+ [2.81226676e-01]
+ [2.57191532e-01]
+ [2.32259520e-01]
+ [2.10138552e-01]
+ [1.89323089e-01]
+ [1.87658696e-01]
+ [1.77901618e-01]
+ [1.68787872e-01]
+ [1.65099662e-01]
+ [1.59526190e-01]
+ [1.56307685e-01]
+ [1.56630745e-01]
+ [1.54993890e-01]
+ [1.53361879e-01]
+ [2.69708310e-01]
+ [2.42629171e-01]
+ [2.15544898e-01]
+ [2.53348686e-01]
+ [1.94495889e-01]
+ [1.36367276e-01]
+ [1.99187444e-01]
+ [1.56123884e-01]
+ [1.04309477e-01]
+ [9.41532238e-02]
+ [1.04982542e-01]
+ [1.05868338e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14455,36 +14445,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.0711731 ]
- [0.08466304]
- [0.37012411]
- [0.40731353]
- [0.3527852 ]
- [0.29870868]
- [0.2451904 ]
- [0.19242525]
- [0.14078205]
- [0.0593246 ]
- [0.04879507]
- [0.04009297]
- [0.03355611]
- [0.03065847]
- [0.02950144]
- [0.0257738 ]
- [0.0252384 ]
- [0.02470306]
- [0.239474  ]
- [0.22925224]
- [0.21900527]
- [0.40511146]
- [0.38508213]
- [0.36502326]
- [0.30965885]
- [0.3036874 ]
- [0.30550544]
- [0.30382115]
- [0.30167202]
- [0.00110717]]</t>
+          <t>[[0.07230033]
+ [0.08720834]
+ [0.32264444]
+ [0.29047576]
+ [0.25184898]
+ [0.21359981]
+ [0.17287272]
+ [0.13641031]
+ [0.10101886]
+ [0.05413605]
+ [0.04622437]
+ [0.03937438]
+ [0.03582134]
+ [0.03345111]
+ [0.03234153]
+ [0.02942584]
+ [0.02890053]
+ [0.02837495]
+ [0.10428401]
+ [0.09805751]
+ [0.09185913]
+ [0.20241384]
+ [0.18986248]
+ [0.17735537]
+ [0.58642211]
+ [0.57231453]
+ [0.56085518]
+ [0.54305737]
+ [0.54120268]
+ [0.00245078]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14503,36 +14493,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.24885419e-01]
- [3.71369869e-01]
- [5.29157090e-01]
- [5.73741758e-01]
- [5.49740027e-01]
- [5.25648261e-01]
- [5.01364626e-01]
- [4.76760299e-01]
- [4.51663861e-01]
- [4.38873492e-01]
- [4.25865701e-01]
- [4.12593111e-01]
- [4.00304120e-01]
- [3.89152737e-01]
- [3.78027456e-01]
- [3.72475457e-01]
- [3.66930154e-01]
- [3.61391589e-01]
- [9.99999999e-01]
- [9.01602915e-01]
- [8.04058520e-01]
- [8.86698417e-01]
- [7.11393643e-01]
- [5.38797031e-01]
- [5.31231867e-01]
- [6.30184847e-01]
- [8.54290594e-01]
- [8.86028899e-01]
- [1.00000000e+00]
- [5.88939552e-10]]</t>
+          <t>[[2.32251658e-01]
+ [3.83128127e-01]
+ [5.52122212e-01]
+ [5.45613334e-01]
+ [5.22631120e-01]
+ [4.99593680e-01]
+ [4.72810809e-01]
+ [4.49513978e-01]
+ [4.25827556e-01]
+ [4.43159169e-01]
+ [4.30294809e-01]
+ [4.17197457e-01]
+ [4.17244924e-01]
+ [4.05849241e-01]
+ [3.94483884e-01]
+ [3.93928047e-01]
+ [3.88212275e-01]
+ [3.82504402e-01]
+ [6.78984695e-01]
+ [6.09341660e-01]
+ [5.40439607e-01]
+ [6.65810316e-01]
+ [5.31202627e-01]
+ [3.99019599e-01]
+ [6.71090850e-01]
+ [6.22972068e-01]
+ [5.51013397e-01]
+ [4.75358506e-01]
+ [7.19359100e-01]
+ [3.94331510e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14621,26 +14611,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
-  1.61085445e+10 2.01211985e+11]
- [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
-  1.49885445e+10 2.01211985e+11]
- [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
-  1.38685445e+10 2.01211985e+11]
- [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
-  1.27485445e+10 2.01211985e+11]
- [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
-  1.16285445e+10 2.01211985e+11]
- [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
-  1.05085445e+10 2.01211985e+11]
- [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
-  9.38854449e+09 2.01211985e+11]
- [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
-  8.26854449e+09 2.01211985e+11]
- [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
-  7.14854449e+09 2.01211985e+11]
- [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
-  6.02854449e+09 2.01211985e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14663,9 +14653,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
- 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
- 374.78657101 363.97090624 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 605.89650176 573.30732989 538.04612995
+ 481.70542688 420.35937827 352.18249915]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14784,9 +14774,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[433.45886933 498.11098302 543.35563483 578.98977215 620.2143425
- 654.24896106 683.49576931 591.24559244 493.58003057 384.54058039
- 374.78657101 363.97090624 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 605.89650176 573.30732989 538.04612995
+ 481.70542688 420.35937827 352.18249915]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14974,9 +14964,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-433.45886933 -498.11098302 -543.35563483 -578.98977215 -620.2143425
- -654.24896106 -683.49576931 -591.24559244 -493.58003057 -384.54058039
- -374.78657101 -363.97090624 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -605.89650176 -573.30732989 -538.04612995
+ -481.70542688 -420.35937827 -352.18249915]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15020,7 +15010,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[496.54061531 645.91548152 492.67405488 319.69131412]</t>
+          <t>[300.         436.36363636 715.47801251 515.44467917]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15039,7 +15029,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.52550626 0.88368052]</t>
+          <t>[1.         1.         0.78869503 0.63385294]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15058,7 +15048,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.52550626 0.88368052]</t>
+          <t>[1.         1.         0.78869503 0.63385294]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15077,7 +15067,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.7687393 1.        1.       ]</t>
+          <t>[0.6875     0.54545455 1.        ]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15120,8 +15110,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
- 6.45915482 5.4375453  4.41593579 3.39432628 3.26271752 3.13110876
+          <t>[6.         6.         6.         6.         6.         6.
+ 6.         5.57739006 5.15478013 4.73217019 4.15461346 3.57705673
  2.9995    ]</t>
         </is>
       </c>
@@ -15373,8 +15363,8 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.15478013 10.30956025  9.46434038  8.30922692  7.15411346
   5.999     ]</t>
         </is>
       </c>
@@ -15628,7 +15618,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[8794.46311934 6763.80450929 5156.62483658 3342.40037537]</t>
+          <t>[12543.519926    8632.68298211  4215.01999789  3034.93539698]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15655,7 +15645,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
+          <t>[224283.15368494 154677.72944854  60516.07575398  22590.24715689]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15682,7 +15672,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
+          <t>[224283.15368494 154677.72944854  60516.07575398  22590.24715689]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15709,7 +15699,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
+          <t>[5.37462626e+12 3.70663143e+12 1.45018154e+12 5.41343090e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15736,7 +15726,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
+          <t>[5.37462626e+12 3.70663143e+12 1.45018154e+12 5.41343090e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15763,7 +15753,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[3.47221214e+12 2.67296027e+12 1.18444997e+12 3.22550715e+11]</t>
+          <t>[4.26207862e+12 2.93935872e+12 1.14999396e+12 4.29285071e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15790,7 +15780,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.10746780e+11 1.62084939e+11 1.23571168e+11 8.00958633e+10]</t>
+          <t>[3.00587585e+11 2.06869949e+11 1.01006949e+11 7.27279031e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15898,10 +15888,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.9490062  0.29503438 0.29503438 0.        ]
- [0.         0.         1.23392094 0.38325372 0.38325372 0.        ]
- [0.         0.         1.61850052 0.6596995  0.6596995  0.        ]
- [0.         0.         2.49700786 1.57194017 1.57194017 0.        ]]</t>
+          <t>[[0.         0.         0.66536347 0.22327134 0.22327134 0.        ]
+ [0.         0.         0.96679098 0.32374409 0.32374409 0.        ]
+ [0.         0.         1.98006178 0.74005701 0.74005701 0.        ]
+ [0.         0.         2.74997616 1.42823845 1.42823845 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15924,10 +15914,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[1.56155204 1.56155204 0.         0.         0.         0.14751719]
- [2.03078785 2.03078785 0.         0.         0.         0.19162686]
- [2.66315966 2.66315966 0.         0.         0.         0.32984975]
- [4.10668094 4.10668094 0.         0.         0.         0.78597008]]</t>
+          <t>[[1.09418284 1.09418284 0.         0.         0.         0.11163567]
+ [1.59061937 1.59061937 0.         0.         0.         0.16187204]
+ [3.25900411 3.25900411 0.         0.         0.         0.37002851]
+ [4.52512533 4.52512533 0.         0.         0.         0.71411923]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15950,7 +15940,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[567.8359584]</t>
+          <t>[593.17099427]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15973,7 +15963,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[2751771.78876713]</t>
+          <t>[3171036.81796321]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15996,8 +15986,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 11.89670012  9.8534811   7.81026208  6.6570438   6.39382628  6.13060876]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 11.57739006 10.73217019  9.88695031  8.88678365  7.73167019  6.57655673]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16020,8 +16010,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.02783779 0.02783779 0.02783779 0.0214     0.0214     0.0214
- 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+          <t>[0.0428   0.0428   0.0428   0.029425 0.029425 0.029425 0.01605  0.01605
+ 0.01605  0.01605  0.01605  0.01605 ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16068,18 +16058,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[75878155.66234948]
- [68658175.40245782]
- [61407550.86950822]
- [65841832.55182985]
- [51872384.20638243]
- [37875793.69672301]
- [35666347.31813475]
- [39833292.77073361]
- [43254309.93120526]
- [30903824.29636569]
- [ -383364.33235323]
- [ 2982048.82443694]]</t>
+          <t>[[57073148.54351816]
+ [51839108.53067596]
+ [46585850.54871989]
+ [56002211.1456615 ]
+ [44438936.24450003]
+ [32859440.60699394]
+ [50665255.24146545]
+ [43332872.16406847]
+ [32393261.01234445]
+ [18666375.16755997]
+ [-3650462.25212169]
+ [ 1955978.4918533 ]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16102,18 +16092,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 3971190.08513464]
- [ 3971871.04285925]
- [ 3972490.25653934]
- [ 5167298.8597204 ]
- [ 5168543.12011546]
- [ 5169548.54896211]
- [ 5633275.23308302]
- [ 6871398.47875284]
- [ 8804137.32736109]
- [10462128.89411173]
- [10931872.88861705]
- [11445106.10052328]]</t>
+          <t>[[ 2792701.10835122]
+ [ 2793252.86240631]
+ [ 2793754.34214764]
+ [ 4061760.93148552]
+ [ 4062884.98001067]
+ [ 4063792.88020595]
+ [ 7724702.03982269]
+ [ 8366655.15301797]
+ [ 9124501.09920767]
+ [10218603.54487248]
+ [11859796.51101674]
+ [14125006.56093238]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16136,18 +16126,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[-12691.56089973]
- [-14217.98349064]
- [-15341.37751144]
- [-21352.99322267]
- [-22708.39535927]
- [-23844.95671795]
- [-22700.14506038]
- [-19212.37079603]
- [-15529.76703918]
- [-13470.93621515]
- [-13147.38086344]
- [-12796.65538503]]</t>
+          <t>[[ -7657.85203425]
+ [ -8578.86706425]
+ [ -9256.70214344]
+ [-14414.78308865]
+ [-15329.77554864]
+ [-16097.03498067]
+ [-29465.86498736]
+ [-27918.52928889]
+ [-26239.44048544]
+ [-24008.92829973]
+ [-21223.04509276]
+ [-18321.35630337]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16200,18 +16190,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.38760368]
- [0.35104603]
- [0.3143711 ]
- [0.33806859]
- [0.26783028]
- [0.19804223]
- [0.1881555 ]
- [0.21152843]
- [0.23334363]
- [0.18226866]
- [0.09633837]
- [0.10198077]]</t>
+          <t>[[0.29138889]
+ [0.26487098]
+ [0.2382786 ]
+ [0.28715628]
+ [0.22891427]
+ [0.17098647]
+ [0.26663975]
+ [0.23249958]
+ [0.18340885]
+ [0.13089816]
+ [0.10612288]
+ [0.12485442]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16230,18 +16220,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.23942983]
- [0.22920228]
- [0.21895141]
- [0.40498308]
- [0.38494699]
- [0.36488328]
- [0.30957499]
- [0.3036279 ]
- [0.30547146]
- [0.30380483]
- [0.30166338]
- [0.30008841]]</t>
+          <t>[[0.10425879]
+ [0.09802976]
+ [0.0918296 ]
+ [0.20233195]
+ [0.18977779]
+ [0.17726883]
+ [0.58628529]
+ [0.57219645]
+ [0.56075695]
+ [0.54298632]
+ [0.54115855]
+ [0.54614124]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16260,18 +16250,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[1.42798999]
- [1.29979459]
- [1.17166433]
- [1.29953325]
- [1.0666539 ]
- [0.83471111]
- [0.81389225]
- [0.96729134]
- [1.23868273]
- [1.24110894]
- [0.68795022]
- [0.77928576]]</t>
+          <t>[[1.06403679]
+ [0.96500523]
+ [0.86613479]
+ [1.07027418]
+ [0.87355436]
+ [0.67787355]
+ [1.12720165]
+ [1.05852874]
+ [0.95394323]
+ [0.83074008]
+ [0.59727858]
+ [0.8902606 ]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16387,7 +16377,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.26554278]</t>
+          <t>[0.28749918]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16410,7 +16400,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.26868824]</t>
+          <t>[0.29079743]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16433,7 +16423,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.26554278 0.26868824 0.83204858 0.98876286 1.16343774 3.00522698]</t>
+          <t>[0.28749918 0.29079743 0.9060565  1.07940401 1.2744441  2.95484941]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16452,9 +16442,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.95685799    1.39654674   -4.29662564    4.38703524   -1.44381433]
- [  63.73060468 -100.10667302   88.89231498    1.92392671  -53.44017336]
- [ -82.77774245  279.00427666 -533.936672    574.76913675 -236.05899896]]</t>
+          <t>[[   0.99588755    0.57277713   -2.12536967    2.48137645   -0.92467147]
+ [  39.31314796   -1.1769964  -113.05884673  172.89113725  -96.96844208]
+ [ -71.98971812  210.54131474 -379.23717952  426.18325967 -184.49767677]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16473,9 +16463,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.94049471    1.40815954   -4.27473963    4.32397912   -1.39789375]
- [  23.31086162  -29.7470502    13.42001915   24.87385575  -30.85768632]
- [ -79.26310196  265.50642366 -508.6605836   546.18063515 -222.76337325]]</t>
+          <t>[[   0.98575265    0.55157453   -2.03072891    2.35244487   -0.85904314]
+ [  15.62292587    7.13856259  -66.15855629   95.36390097  -50.96683314]
+ [ -69.56632101  200.22448368 -358.89088259  402.6319441  -173.39922418]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16494,7 +16484,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  6.95186801 -22.89312622  35.06246842 -24.93498915   6.81377893]
+          <t>[[  5.73082192 -21.58627341  37.7802551  -29.85291953   8.92811592]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16519,7 +16509,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.26868824 1.16343774 3.0763986 ]</t>
+          <t>[0.29079743 1.2744441  3.01822675]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16542,7 +16532,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.26554278 0.98876286 3.00522698]</t>
+          <t>[0.28749918 1.07940401 2.95484941]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16565,7 +16555,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.65186173 0.         0.        ]</t>
+          <t>[4.79887691 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16589,18 +16579,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00592295]
- [0.02192601]
- [0.04708946]
- [0.09972788]
- [0.17069376]
- [0.25646341]
- [0.31415323]
- [0.37769798]
- [0.4497879 ]
- [0.52643488]
- [0.61021663]
- [0.69655674]]</t>
+ [0.0047476 ]
+ [0.0176838 ]
+ [0.03806008]
+ [0.0817596 ]
+ [0.14206951]
+ [0.21579408]
+ [0.26738309]
+ [0.32584572]
+ [0.39100055]
+ [0.45744895]
+ [0.52857399]
+ [0.60193779]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16623,7 +16613,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.69655674]</t>
+          <t>[0.60193779]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16646,18 +16636,18 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-15179644.57477847]
- [-14132373.17195525]
- [-13084618.49352921]
- [-11930570.07020072]
- [-10775879.22210644]
- [ -9620648.19448792]
- [ -8982189.62116224]
- [ -8453418.30858828]
- [ -8034420.2959698 ]
- [ -7701192.56941366]
- [ -7381134.66226718]
- [ -7074256.27587359]]</t>
+          <t>[[-16642052.68077287]
+ [-15151411.71154579]
+ [-13660321.66061708]
+ [-12190937.65519989]
+ [-10720959.21378973]
+ [ -9250481.88045562]
+ [ -8782717.86353992]
+ [ -8349002.79817917]
+ [ -7949364.28700668]
+ [ -7614057.67561206]
+ [ -7322336.14528004]
+ [ -7074256.2758736 ]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16680,18 +16670,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428182.36228258]
- [2428619.74461094]
- [2429017.59041094]
- [2429687.11812573]
- [2430301.68155796]
- [2430798.64910754]
- [2429705.94644639]
- [2429549.89250651]
- [2429386.09811265]
- [2429248.32623385]
- [2429314.34151656]
- [2429297.86772874]]</t>
+          <t>[[2428218.63183984]
+ [2428724.29664094]
+ [2429184.01839837]
+ [2429787.67640231]
+ [2430496.35184009]
+ [2431069.1484264 ]
+ [2429091.91307533]
+ [2429151.14334651]
+ [2429184.17194882]
+ [2429079.60569896]
+ [2429000.40645684]
+ [2428868.62871887]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16714,18 +16704,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29098.11184182]
- [29103.95515054]
- [29109.32475869]
- [29118.44569902]
- [29127.03800842]
- [29134.21824715]
- [29119.45947022]
- [29117.59786569]
- [29115.82660431]
- [29114.63043016]
- [29116.7202007 ]
- [29117.87698774]]</t>
+          <t>[[29098.59255663]
+ [29105.34612895]
+ [29111.54908376]
+ [29119.806295  ]
+ [29129.7120228 ]
+ [29137.98640246]
+ [29110.98327176]
+ [29112.09724594]
+ [29112.94707323]
+ [29111.90338574]
+ [29111.3965318 ]
+ [29110.42707744]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16748,18 +16738,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4328375.06387457]
- [-3973935.82235014]
- [-3617972.07032587]
- [-3106978.07552878]
- [-2593734.6006956 ]
- [-2079300.20220311]
- [-1770546.7419616 ]
- [-1461474.7694844 ]
- [-1151636.22193945]
- [ -861403.80308585]
- [ -570219.36170081]
- [ -278501.98193607]]</t>
+          <t>[[-4315036.73149233]
+ [-3960963.91804142]
+ [-3605626.39629023]
+ [-3095867.02568193]
+ [-2584130.1716071 ]
+ [-2071521.95226446]
+ [-1763826.38130533]
+ [-1455513.56778873]
+ [-1146603.35051031]
+ [ -857775.17453666]
+ [ -568410.70137439]
+ [ -278501.81459757]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16782,18 +16772,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.23984864e+08]
- [ 2.94433637e+08]
- [ 2.64769723e+08]
- [ 2.22212632e+08]
- [ 1.79496896e+08]
- [ 1.36703589e+08]
- [ 1.11026741e+08]
- [ 8.53346563e+07]
- [ 5.96039492e+07]
- [ 3.55415290e+07]
- [ 1.14497012e+07]
- [-1.26341973e+07]]</t>
+          <t>[[ 3.23081547e+08]
+ [ 2.93557947e+08]
+ [ 2.63940912e+08]
+ [ 2.21475706e+08]
+ [ 1.78871363e+08]
+ [ 1.36211862e+08]
+ [ 1.10612708e+08]
+ [ 8.49778994e+07]
+ [ 5.93125732e+07]
+ [ 3.53377430e+07]
+ [ 1.13496027e+07]
+ [-1.26341968e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16816,18 +16806,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299696.94375691]
- [1299681.72725792]
- [1299666.50156843]
- [1299708.38136491]
- [1299686.56533758]
- [1299664.7378989 ]
- [1299658.54375541]
- [1299683.75103483]
- [1299725.6161243 ]
- [1299756.19807727]
- [1299755.63983115]
- [1299755.55903062]]</t>
+          <t>[[1299645.86221391]
+ [1299630.67498924]
+ [1299615.48188297]
+ [1299663.36057452]
+ [1299641.59840777]
+ [1299619.82816641]
+ [1299721.13099904]
+ [1299727.45467695]
+ [1299735.98266198]
+ [1299752.33591793]
+ [1299781.81785447]
+ [1299823.84198275]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16850,9 +16840,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809721]
+          <t>[[  2427925.55809669]
  [    29094.73368413]
- [-16226259.31013004]]</t>
+ [-18132081.75685217]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16875,8 +16865,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.68084523e+06]
- [ 3.53388791e+08]
+          <t>[[-4.66737516e+06]
+ [ 3.52475380e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16900,7 +16890,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[1892375.74649594]</t>
+          <t>[2086693.52588943]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16923,7 +16913,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-3.38039904e+00 -4.99379313e-02  1.15553981e+02]</t>
+          <t>[-3.06560838e+00 -4.52875944e-02  1.06882377e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16946,7 +16936,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.10747832e+10 3.09372962e+10 2.90371228e+08 7.86163621e+02
+          <t>[3.10750852e+10 3.09375981e+10 2.94783991e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -18455,7 +18445,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.67367731]</t>
+          <t>[2.97392115]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19587,8 +19577,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
- 12.91830963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19615,7 +19604,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.08109086 0.090103   0.08233426 0.0790482  0.07774489
+  0.07706251]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19831,7 +19821,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
+          <t>[12.         12.         12.          9.46434038  5.999     ]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19881,7 +19871,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
+          <t>[[0.04  0.04  0.015 0.015 0.015]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
